--- a/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
+++ b/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesCabral\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesCabral\git\JTMP-Data-Exchange-Specs\schemas\CaseUpdates_iepd\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9A0EAE-0706-4C52-ABBB-174F0166D04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68148510-8F0D-4DFD-BEB7-F861F93FAD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4065" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Initiation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="911">
   <si>
     <t/>
   </si>
@@ -3280,6 +3280,18 @@
   </si>
   <si>
     <t>CaseActivity</t>
+  </si>
+  <si>
+    <t>BondConditions</t>
+  </si>
+  <si>
+    <t>Text description conditions of bond</t>
+  </si>
+  <si>
+    <t>BondSurety</t>
+  </si>
+  <si>
+    <t>Bondsman or bonding company</t>
   </si>
 </sst>
 </file>
@@ -3308,7 +3320,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3329,6 +3341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3397,7 +3415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3430,6 +3448,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3978,8 +4002,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C1555FB-E16C-423D-A1FA-98AD99C9E15B}" name="MappingSpreadsheet" displayName="MappingSpreadsheet" ref="A1:O146" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:O146" xr:uid="{2C1555FB-E16C-423D-A1FA-98AD99C9E15B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C1555FB-E16C-423D-A1FA-98AD99C9E15B}" name="MappingSpreadsheet" displayName="MappingSpreadsheet" ref="A1:O148" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:O148" xr:uid="{2C1555FB-E16C-423D-A1FA-98AD99C9E15B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O148">
+    <sortCondition ref="C1:C148"/>
+  </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{A154B48A-3186-466D-92F1-8A6270997FD4}" name="Property Type" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{34D42627-CEA6-4CC6-8595-04D65F5B7FC2}" name="ID" dataDxfId="13"/>
@@ -4298,13 +4325,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O146"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4375,75 +4402,77 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>904</v>
+        <v>226</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>902</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>904</v>
+        <v>226</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>592</v>
+        <v>455</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>594</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4451,44 +4480,44 @@
         <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>904</v>
+        <v>226</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>455</v>
+        <v>662</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>456</v>
+        <v>555</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4496,44 +4525,44 @@
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>904</v>
+        <v>226</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>461</v>
+        <v>667</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4541,44 +4570,44 @@
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>904</v>
+        <v>226</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>603</v>
+        <v>455</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>604</v>
+        <v>456</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9" t="s">
-        <v>605</v>
+        <v>671</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>606</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4586,122 +4615,134 @@
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>904</v>
+        <v>226</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>607</v>
+        <v>673</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>608</v>
+        <v>662</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
-        <v>609</v>
+        <v>674</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>610</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>459</v>
+        <v>680</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>460</v>
+        <v>681</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9" t="s">
-        <v>462</v>
+        <v>682</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>463</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4709,163 +4750,155 @@
         <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>454</v>
+        <v>684</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>455</v>
+        <v>685</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>457</v>
+        <v>686</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>458</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>89</v>
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>905</v>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>226</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>93</v>
+        <v>907</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>94</v>
+        <v>908</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>519</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>521</v>
-      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="E13" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>226</v>
@@ -4874,125 +4907,113 @@
         <v>226</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>455</v>
+        <v>693</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>456</v>
+        <v>604</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9" t="s">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>660</v>
+        <v>695</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>231</v>
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>664</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>665</v>
+        <v>459</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>666</v>
+        <v>460</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>667</v>
+        <v>461</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9" t="s">
-        <v>668</v>
+        <v>462</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>669</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5000,31 +5021,31 @@
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>670</v>
+        <v>454</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>455</v>
@@ -5034,100 +5055,80 @@
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9" t="s">
-        <v>671</v>
+        <v>457</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>672</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>242</v>
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>675</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
-        <v>12</v>
+      <c r="A19" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>245</v>
+        <v>432</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>13</v>
+        <v>434</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>14</v>
+        <v>433</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
-        <v>678</v>
+        <v>887</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>679</v>
+        <v>888</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5135,44 +5136,44 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>681</v>
+        <v>729</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>555</v>
+        <v>456</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9" t="s">
-        <v>682</v>
+        <v>730</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5180,249 +5181,255 @@
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>685</v>
+        <v>455</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>686</v>
+        <v>733</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>687</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>254</v>
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>691</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>226</v>
+        <v>906</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>604</v>
+        <v>477</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>287</v>
+      <c r="A24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+        <v>906</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="11" t="s">
-        <v>410</v>
+      <c r="A25" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>432</v>
+        <v>269</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>288</v>
+        <v>906</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>10</v>
+        <v>270</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>7</v>
+        <v>271</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+        <v>270</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>461</v>
+      </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9" t="s">
-        <v>887</v>
+        <v>708</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>888</v>
+        <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="7" t="s">
-        <v>12</v>
+      <c r="A26" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>290</v>
+        <v>427</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>288</v>
+        <v>906</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>13</v>
+        <v>261</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="H26" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>728</v>
-      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
-        <v>729</v>
+        <v>876</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>456</v>
+        <v>877</v>
       </c>
       <c r="M26" s="9"/>
-      <c r="N26" s="9" t="s">
-        <v>730</v>
-      </c>
+      <c r="N26" s="9"/>
       <c r="O26" s="9" t="s">
-        <v>731</v>
+        <v>878</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5430,31 +5437,31 @@
         <v>12</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>288</v>
+        <v>906</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>455</v>
@@ -5462,117 +5469,153 @@
       <c r="L27" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="M27" s="9"/>
+      <c r="M27" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="N27" s="9" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="A28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>327</v>
+      <c r="A29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+        <v>906</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>773</v>
+        <v>720</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>774</v>
+        <v>721</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>461</v>
+        <v>722</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9" t="s">
-        <v>775</v>
+        <v>723</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>776</v>
+        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5580,85 +5623,83 @@
         <v>12</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>770</v>
+        <v>720</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>771</v>
+        <v>725</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9" t="s">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>772</v>
+        <v>727</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>868</v>
-      </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9" t="s">
-        <v>869</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>870</v>
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5666,42 +5707,36 @@
         <v>410</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>904</v>
+        <v>441</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>906</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>426</v>
+        <v>179</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>442</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>425</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
-        <v>871</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>873</v>
-      </c>
+      <c r="I33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5709,44 +5744,44 @@
         <v>12</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>904</v>
+        <v>180</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>906</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>358</v>
+        <v>181</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>359</v>
+        <v>182</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>358</v>
+        <v>181</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>804</v>
+        <v>615</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>805</v>
+        <v>616</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>461</v>
+        <v>586</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9" t="s">
-        <v>806</v>
+        <v>617</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>807</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5754,87 +5789,87 @@
         <v>12</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>904</v>
+        <v>186</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>906</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>379</v>
+        <v>187</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>379</v>
+        <v>187</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>832</v>
+        <v>623</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>833</v>
+        <v>624</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="N35" s="9" t="s">
+        <v>625</v>
+      </c>
       <c r="O35" s="9" t="s">
-        <v>834</v>
+        <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="7" t="s">
-        <v>12</v>
+      <c r="A36" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>904</v>
+        <v>443</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>906</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>14</v>
+        <v>444</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>414</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" s="9"/>
       <c r="K36" s="9" t="s">
-        <v>778</v>
+        <v>895</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>779</v>
+        <v>896</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>780</v>
+        <v>897</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>781</v>
+        <v>898</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5842,46 +5877,46 @@
         <v>12</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>904</v>
+        <v>189</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>906</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>341</v>
+        <v>191</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>782</v>
+        <v>627</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>783</v>
+        <v>629</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>784</v>
+        <v>630</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5889,46 +5924,46 @@
         <v>12</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>904</v>
+        <v>192</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>906</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>343</v>
+        <v>193</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>344</v>
+        <v>194</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>343</v>
+        <v>193</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>785</v>
+        <v>631</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>666</v>
+        <v>559</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>667</v>
+        <v>461</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>786</v>
+        <v>632</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>787</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5936,44 +5971,44 @@
         <v>12</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>904</v>
+        <v>195</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>906</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>370</v>
+        <v>196</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>371</v>
+        <v>197</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>819</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="9" t="s">
-        <v>820</v>
+        <v>634</v>
       </c>
       <c r="L39" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="M39" s="9"/>
+      <c r="M39" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="N39" s="9" t="s">
-        <v>821</v>
+        <v>635</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>822</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5981,89 +6016,81 @@
         <v>12</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>904</v>
+        <v>198</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>906</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>346</v>
+        <v>199</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>347</v>
+        <v>200</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>346</v>
+        <v>199</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>788</v>
+        <v>637</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>789</v>
+        <v>638</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M40" s="9"/>
+        <v>461</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="N40" s="9" t="s">
-        <v>790</v>
+        <v>639</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>791</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>348</v>
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>795</v>
+        <v>906</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6071,89 +6098,83 @@
         <v>12</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>351</v>
+        <v>48</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>328</v>
+        <v>46</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>352</v>
+        <v>49</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>353</v>
+        <v>50</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>352</v>
+        <v>49</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>796</v>
+        <v>479</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>797</v>
+        <v>461</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9" t="s">
-        <v>798</v>
+        <v>481</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>799</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>354</v>
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="O43" s="9" t="s">
-        <v>803</v>
+        <v>906</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6161,89 +6182,91 @@
         <v>12</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>363</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>364</v>
+        <v>120</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>365</v>
+        <v>121</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>364</v>
+        <v>120</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>811</v>
+        <v>544</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>812</v>
+        <v>545</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>461</v>
+        <v>546</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>813</v>
+        <v>547</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>814</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="11" t="s">
-        <v>410</v>
+      <c r="A45" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>429</v>
+        <v>125</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>73</v>
+        <v>126</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="H45" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="9"/>
+        <v>126</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>553</v>
+      </c>
       <c r="K45" s="9" t="s">
-        <v>879</v>
+        <v>554</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>880</v>
+        <v>555</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9" t="s">
-        <v>881</v>
+        <v>556</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>882</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6251,44 +6274,44 @@
         <v>12</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>360</v>
+        <v>122</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>361</v>
+        <v>123</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>362</v>
+        <v>124</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>361</v>
+        <v>123</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>804</v>
+        <v>549</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>808</v>
+        <v>550</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>461</v>
+        <v>551</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="9" t="s">
-        <v>809</v>
+        <v>552</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>810</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6296,310 +6319,286 @@
         <v>12</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>366</v>
+        <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>367</v>
+        <v>129</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>368</v>
+        <v>130</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>367</v>
+        <v>129</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>815</v>
+        <v>558</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>816</v>
+        <v>559</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9" t="s">
-        <v>817</v>
+        <v>560</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>818</v>
+        <v>561</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>372</v>
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>826</v>
-      </c>
+      <c r="D48" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>375</v>
+        <v>163</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>904</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>328</v>
+        <v>161</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>376</v>
+        <v>164</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>377</v>
+        <v>165</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>376</v>
+        <v>164</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>827</v>
+        <v>591</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>828</v>
+        <v>592</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>0</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M49" s="9"/>
       <c r="N49" s="9" t="s">
-        <v>830</v>
+        <v>593</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>831</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>260</v>
+      <c r="A50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="O50" s="4"/>
+        <v>904</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>702</v>
+        <v>598</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>703</v>
+        <v>599</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9" t="s">
-        <v>704</v>
+        <v>600</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>705</v>
+        <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>263</v>
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" s="9" t="s">
-        <v>701</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>706</v>
+        <v>770</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>707</v>
+        <v>771</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9" t="s">
-        <v>708</v>
+        <v>0</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>709</v>
+        <v>772</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6607,22 +6606,22 @@
         <v>410</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>117</v>
+        <v>423</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>14</v>
@@ -6630,62 +6629,60 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
+      <c r="N54" s="9" t="s">
+        <v>869</v>
+      </c>
       <c r="O54" s="9" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="7" t="s">
-        <v>12</v>
+      <c r="A55" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>272</v>
+        <v>424</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>65</v>
+        <v>328</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="H55" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>273</v>
-      </c>
+      <c r="I55" s="9"/>
       <c r="J55" s="9" t="s">
-        <v>710</v>
+        <v>871</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>455</v>
+        <v>872</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>0</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="M55" s="9"/>
       <c r="N55" s="9" t="s">
-        <v>711</v>
+        <v>874</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>712</v>
+        <v>875</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6693,46 +6690,44 @@
         <v>12</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>702</v>
+        <v>804</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>713</v>
+        <v>805</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>0</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M56" s="9"/>
       <c r="N56" s="9" t="s">
-        <v>714</v>
+        <v>806</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>715</v>
+        <v>807</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6740,46 +6735,42 @@
         <v>12</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>278</v>
+        <v>378</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>279</v>
+        <v>379</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>279</v>
+        <v>379</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>716</v>
+        <v>832</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>717</v>
+        <v>833</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="M57" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>718</v>
-      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
       <c r="O57" s="9" t="s">
-        <v>719</v>
+        <v>834</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6787,44 +6778,44 @@
         <v>12</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>720</v>
+        <v>777</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>721</v>
+        <v>778</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>722</v>
+        <v>779</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9" t="s">
-        <v>723</v>
+        <v>780</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>724</v>
+        <v>781</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6832,120 +6823,138 @@
         <v>12</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="H59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="O59" s="9" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H60" s="5"/>
-      <c r="I60" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>614</v>
+      <c r="I60" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="11" t="s">
-        <v>410</v>
+      <c r="A61" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>906</v>
+        <v>369</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
+        <v>370</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>461</v>
+      </c>
       <c r="M61" s="9"/>
       <c r="N61" s="9" t="s">
-        <v>893</v>
+        <v>821</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6953,44 +6962,44 @@
         <v>12</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>906</v>
+        <v>345</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>181</v>
+        <v>346</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>182</v>
+        <v>347</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>181</v>
+        <v>346</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>615</v>
+        <v>788</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>616</v>
+        <v>789</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>586</v>
+        <v>456</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9" t="s">
-        <v>617</v>
+        <v>790</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>618</v>
+        <v>791</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6998,44 +7007,44 @@
         <v>12</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>905</v>
+        <v>348</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>619</v>
+        <v>792</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>620</v>
+        <v>793</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9" t="s">
-        <v>621</v>
+        <v>794</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>622</v>
+        <v>795</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7043,87 +7052,89 @@
         <v>12</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>906</v>
+        <v>351</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>188</v>
+        <v>353</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>623</v>
+        <v>796</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>624</v>
+        <v>455</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>456</v>
+        <v>797</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9" t="s">
-        <v>625</v>
+        <v>798</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>626</v>
+        <v>799</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="11" t="s">
-        <v>410</v>
+      <c r="A65" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>906</v>
+        <v>354</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>46</v>
+        <v>355</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>414</v>
+        <v>356</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J65" s="9"/>
+        <v>355</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>800</v>
+      </c>
       <c r="K65" s="9" t="s">
-        <v>895</v>
+        <v>801</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>896</v>
+        <v>456</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9" t="s">
-        <v>897</v>
+        <v>802</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>898</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7131,46 +7142,46 @@
         <v>12</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>906</v>
+        <v>363</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>190</v>
+        <v>364</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>191</v>
+        <v>365</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>190</v>
+        <v>364</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>627</v>
+        <v>811</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>628</v>
+        <v>812</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>629</v>
+        <v>813</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>630</v>
+        <v>814</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7178,38 +7189,42 @@
         <v>410</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>905</v>
+        <v>429</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>440</v>
+        <v>328</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I67" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
+      <c r="N67" s="9" t="s">
+        <v>881</v>
+      </c>
       <c r="O67" s="9" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7217,179 +7232,165 @@
         <v>12</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>906</v>
+        <v>360</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>194</v>
+        <v>362</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>631</v>
+        <v>804</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>559</v>
+        <v>808</v>
       </c>
       <c r="L68" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="M68" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="M68" s="9"/>
       <c r="N68" s="9" t="s">
-        <v>632</v>
+        <v>809</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>633</v>
+        <v>810</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>636</v>
-      </c>
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
     </row>
     <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>906</v>
+        <v>75</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>637</v>
+        <v>500</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>638</v>
+        <v>501</v>
       </c>
       <c r="L70" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="M70" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="M70" s="9"/>
       <c r="N70" s="9" t="s">
-        <v>639</v>
+        <v>502</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>640</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="11" t="s">
-        <v>410</v>
+      <c r="A71" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>135</v>
+        <v>78</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>135</v>
+        <v>73</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="H71" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
+      <c r="I71" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>504</v>
+      </c>
       <c r="K71" s="9" t="s">
-        <v>564</v>
+        <v>455</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>565</v>
+        <v>456</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="9" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>889</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7397,44 +7398,44 @@
         <v>12</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>905</v>
+        <v>83</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>641</v>
+        <v>455</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>642</v>
+        <v>456</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="9" t="s">
-        <v>643</v>
+        <v>511</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>644</v>
+        <v>512</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7442,206 +7443,212 @@
         <v>12</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>905</v>
+        <v>80</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>645</v>
+        <v>455</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="9" t="s">
-        <v>646</v>
+        <v>508</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>647</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="L74" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="B75" s="8" t="s">
-        <v>212</v>
+        <v>435</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>905</v>
+        <v>135</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>214</v>
+      <c r="E75" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H75" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="H75" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>565</v>
+      </c>
       <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
+      <c r="N75" s="9" t="s">
+        <v>566</v>
+      </c>
       <c r="O75" s="9" t="s">
-        <v>651</v>
+        <v>889</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9" t="s">
-        <v>652</v>
-      </c>
+      <c r="A76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="O76" s="4"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>905</v>
+        <v>147</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>648</v>
+        <v>579</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>642</v>
+        <v>456</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="9" t="s">
-        <v>649</v>
+        <v>580</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>650</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7649,42 +7656,44 @@
         <v>12</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>905</v>
+        <v>144</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>653</v>
+        <v>545</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>654</v>
+        <v>546</v>
       </c>
       <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
+      <c r="N78" s="9" t="s">
+        <v>576</v>
+      </c>
       <c r="O78" s="9" t="s">
-        <v>655</v>
+        <v>577</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7692,204 +7701,204 @@
         <v>12</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>905</v>
+        <v>137</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
+        <v>567</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>569</v>
+      </c>
       <c r="O79" s="9" t="s">
-        <v>656</v>
+        <v>570</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="B81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="F80" s="5"/>
-      <c r="G80" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="L81" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>482</v>
-      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="O81" s="4"/>
     </row>
     <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>902</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="4" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="4" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="J82" s="4"/>
-      <c r="K82" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>543</v>
-      </c>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
     </row>
     <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>545</v>
+        <v>455</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>0</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="M83" s="9"/>
       <c r="N83" s="9" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7897,89 +7906,83 @@
         <v>12</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>906</v>
+        <v>183</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>905</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>555</v>
+        <v>461</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="9" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="7" t="s">
-        <v>12</v>
+      <c r="A85" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>906</v>
+        <v>438</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>905</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>13</v>
+        <v>179</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>549</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
       <c r="K85" s="9" t="s">
-        <v>550</v>
+        <v>890</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>551</v>
+        <v>891</v>
       </c>
       <c r="M85" s="9"/>
-      <c r="N85" s="9" t="s">
-        <v>552</v>
-      </c>
+      <c r="N85" s="9"/>
       <c r="O85" s="9" t="s">
-        <v>548</v>
+        <v>892</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7987,126 +7990,128 @@
         <v>12</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>906</v>
+        <v>201</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>905</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>559</v>
+        <v>641</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>461</v>
+        <v>642</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="9" t="s">
-        <v>560</v>
+        <v>643</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>561</v>
+        <v>644</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H87" s="5"/>
-      <c r="I87" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="L87" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="O87" s="4"/>
+      <c r="A87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="7" t="s">
-        <v>12</v>
+      <c r="A88" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>135</v>
+        <v>445</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>905</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>13</v>
+        <v>179</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H88" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="H88" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I88" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="J88" s="9" t="s">
-        <v>578</v>
-      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
       <c r="K88" s="9" t="s">
-        <v>579</v>
+        <v>899</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M88" s="9"/>
-      <c r="N88" s="9" t="s">
-        <v>580</v>
-      </c>
+      <c r="N88" s="9"/>
       <c r="O88" s="9" t="s">
-        <v>581</v>
+        <v>900</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8114,44 +8119,38 @@
         <v>12</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>135</v>
+        <v>212</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>905</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="K89" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="L89" s="9" t="s">
-        <v>546</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
       <c r="M89" s="9"/>
-      <c r="N89" s="9" t="s">
-        <v>576</v>
-      </c>
+      <c r="N89" s="9"/>
       <c r="O89" s="9" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8159,46 +8158,38 @@
         <v>12</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>135</v>
+        <v>215</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>905</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="K90" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="L90" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M90" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N90" s="9" t="s">
-        <v>569</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
       <c r="O90" s="9" t="s">
-        <v>570</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8206,175 +8197,169 @@
         <v>12</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>135</v>
+        <v>209</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>905</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M91" s="9" t="s">
-        <v>0</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="M91" s="9"/>
       <c r="N91" s="9" t="s">
-        <v>573</v>
+        <v>649</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>574</v>
+        <v>650</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="11" t="s">
-        <v>410</v>
+      <c r="A92" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>135</v>
+        <v>218</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>905</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H92" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
+      <c r="I92" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>533</v>
+      </c>
       <c r="K92" s="9" t="s">
-        <v>883</v>
+        <v>653</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="M92" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="N92" s="9" t="s">
-        <v>483</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
       <c r="O92" s="9" t="s">
-        <v>886</v>
+        <v>655</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F93" s="5"/>
-      <c r="G93" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H93" s="5"/>
-      <c r="I93" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="O93" s="4"/>
-    </row>
-    <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>320</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="E94" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="O94" s="9" t="s">
-        <v>764</v>
-      </c>
+      <c r="E94" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H94" s="5"/>
+      <c r="I94" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="O94" s="4"/>
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>905</v>
@@ -8383,43 +8368,43 @@
         <v>318</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="9" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="11" t="s">
-        <v>410</v>
+      <c r="A96" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>905</v>
@@ -8428,154 +8413,144 @@
         <v>318</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>414</v>
+        <v>326</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J96" s="9"/>
+        <v>325</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>765</v>
+      </c>
       <c r="K96" s="9" t="s">
-        <v>859</v>
+        <v>766</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>769</v>
+        <v>461</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="9" t="s">
-        <v>860</v>
+        <v>767</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>861</v>
+        <v>768</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>150</v>
+      <c r="A97" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H97" s="5"/>
-      <c r="I97" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
+      <c r="D97" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>153</v>
+      <c r="A98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E98" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="K98" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="L98" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="O98" s="9" t="s">
-        <v>585</v>
-      </c>
+      <c r="E98" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>157</v>
+      <c r="A99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J99" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="K99" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="L99" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="O99" s="9" t="s">
-        <v>590</v>
+      <c r="D99" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8583,75 +8558,85 @@
         <v>8</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>902</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="4" t="s">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="4" t="s">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4" t="s">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="N100" s="4"/>
-      <c r="O100" s="4" t="s">
-        <v>759</v>
-      </c>
+      <c r="O100" s="4"/>
     </row>
     <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>95</v>
+      <c r="A101" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H101" s="5"/>
-      <c r="I101" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
+      <c r="E101" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="O101" s="9" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>905</v>
@@ -8660,240 +8645,222 @@
         <v>96</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="9" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>101</v>
+      <c r="A103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K103" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="L103" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="O103" s="9" t="s">
-        <v>528</v>
-      </c>
+      <c r="D103" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="O103" s="4"/>
     </row>
     <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>902</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="4" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="4" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="4" t="s">
-        <v>562</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+    </row>
+    <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N104" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="O104" s="4"/>
-    </row>
-    <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="3" t="s">
+      <c r="E105" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="O105" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E105" s="4" t="s">
+      <c r="B106" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="F105" s="5"/>
-      <c r="G105" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H105" s="5"/>
-      <c r="I105" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="O105" s="4"/>
-    </row>
-    <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="K106" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="L106" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="O106" s="9" t="s">
-        <v>495</v>
-      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>135</v>
+        <v>905</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M107" s="9"/>
-      <c r="N107" s="9" t="s">
-        <v>498</v>
-      </c>
+      <c r="N107" s="9"/>
       <c r="O107" s="9" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8901,44 +8868,44 @@
         <v>12</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>135</v>
+        <v>905</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="L108" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="9" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
       <c r="O108" s="9" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8946,44 +8913,44 @@
         <v>12</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>135</v>
+        <v>905</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="9" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>491</v>
+        <v>536</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8991,225 +8958,235 @@
         <v>8</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" s="4"/>
+        <v>407</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>905</v>
+      </c>
       <c r="D110" s="4" t="s">
-        <v>70</v>
+        <v>408</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>902</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="4" t="s">
-        <v>71</v>
+        <v>409</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="4" t="s">
-        <v>70</v>
+        <v>408</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
     </row>
     <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>37</v>
+      <c r="A111" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F111" s="5"/>
-      <c r="G111" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H111" s="5"/>
-      <c r="I111" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4" t="s">
+      <c r="D111" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
+      <c r="E111" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="O111" s="9" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="7" t="s">
-        <v>12</v>
+      <c r="A112" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>40</v>
+        <v>415</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>38</v>
+        <v>408</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>13</v>
+        <v>394</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>36</v>
+        <v>416</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J112" s="9" t="s">
-        <v>474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" s="9"/>
       <c r="K112" s="9" t="s">
-        <v>455</v>
+        <v>645</v>
       </c>
       <c r="L112" s="9" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="9" t="s">
-        <v>475</v>
+        <v>862</v>
       </c>
       <c r="O112" s="9" t="s">
-        <v>476</v>
+        <v>863</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>104</v>
+      <c r="A113" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
+      <c r="D113" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="O113" s="9" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>112</v>
+      <c r="A114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J114" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="K114" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="L114" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="9" t="s">
-        <v>539</v>
-      </c>
+      <c r="D114" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H114" s="5"/>
+      <c r="I114" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
     </row>
     <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>106</v>
+        <v>387</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>105</v>
+        <v>382</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>107</v>
+        <v>388</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>107</v>
+        <v>388</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>529</v>
+        <v>839</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>530</v>
+        <v>840</v>
       </c>
       <c r="L115" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="9" t="s">
-        <v>531</v>
+        <v>841</v>
       </c>
       <c r="O115" s="9" t="s">
-        <v>532</v>
+        <v>842</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9217,446 +9194,470 @@
         <v>12</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>109</v>
+        <v>385</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>105</v>
+        <v>382</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>110</v>
+        <v>386</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>111</v>
+        <v>384</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>110</v>
+        <v>386</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>533</v>
+        <v>835</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>534</v>
+        <v>836</v>
       </c>
       <c r="L116" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="9" t="s">
-        <v>535</v>
+        <v>837</v>
       </c>
       <c r="O116" s="9" t="s">
-        <v>536</v>
+        <v>838</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>407</v>
+      <c r="A117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F117" s="5"/>
-      <c r="G117" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="H117" s="5"/>
-      <c r="I117" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
+      <c r="D117" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="O117" s="9" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>417</v>
+      <c r="A118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D118" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="L118" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="M118" s="9"/>
-      <c r="N118" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="O118" s="9" t="s">
-        <v>863</v>
-      </c>
+      <c r="D118" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F118" s="5"/>
+      <c r="G118" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H118" s="5"/>
+      <c r="I118" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
     </row>
     <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="11" t="s">
-        <v>410</v>
+      <c r="A119" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>394</v>
+        <v>397</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>7</v>
+        <v>398</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J119" s="9"/>
+        <v>397</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>847</v>
+      </c>
       <c r="K119" s="9" t="s">
-        <v>645</v>
+        <v>666</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>517</v>
+        <v>667</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="9" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="O119" s="9" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="11" t="s">
-        <v>410</v>
+      <c r="A120" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>297</v>
+        <v>406</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>414</v>
+        <v>323</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>735</v>
+        <v>856</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>736</v>
+        <v>456</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="9" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="O120" s="9" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>381</v>
+      <c r="A121" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F121" s="5"/>
-      <c r="G121" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H121" s="5"/>
-      <c r="I121" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
+      <c r="D121" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="O121" s="9" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="H122" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>840</v>
+        <v>455</v>
       </c>
       <c r="L122" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="9" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>385</v>
+      <c r="A123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D123" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="J123" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="K123" s="9" t="s">
-        <v>836</v>
-      </c>
-      <c r="L123" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9" t="s">
-        <v>837</v>
-      </c>
-      <c r="O123" s="9" t="s">
-        <v>838</v>
-      </c>
+      <c r="D123" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F123" s="5"/>
+      <c r="G123" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H123" s="5"/>
+      <c r="I123" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="O123" s="4"/>
     </row>
     <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>390</v>
+        <v>299</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>392</v>
+        <v>301</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>843</v>
+        <v>738</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>844</v>
+        <v>739</v>
       </c>
       <c r="L124" s="9" t="s">
-        <v>604</v>
+        <v>740</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="9" t="s">
-        <v>845</v>
+        <v>741</v>
       </c>
       <c r="O124" s="9" t="s">
-        <v>846</v>
+        <v>742</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>393</v>
+      <c r="A125" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F125" s="5"/>
-      <c r="G125" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="H125" s="5"/>
-      <c r="I125" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
+      <c r="D125" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="O125" s="9" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>396</v>
+        <v>305</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>397</v>
+        <v>306</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>398</v>
+        <v>307</v>
       </c>
       <c r="H126" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>397</v>
+        <v>306</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>847</v>
+        <v>747</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>667</v>
+        <v>740</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="9" t="s">
-        <v>848</v>
+        <v>749</v>
       </c>
       <c r="O126" s="9" t="s">
-        <v>849</v>
+        <v>750</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9664,42 +9665,44 @@
         <v>12</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>406</v>
+        <v>309</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="H127" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="J127" s="9"/>
+        <v>309</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>751</v>
+      </c>
       <c r="K127" s="9" t="s">
-        <v>856</v>
+        <v>752</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>456</v>
+        <v>740</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="9" t="s">
-        <v>857</v>
+        <v>753</v>
       </c>
       <c r="O127" s="9" t="s">
-        <v>858</v>
+        <v>754</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9707,216 +9710,200 @@
         <v>12</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="F128" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>850</v>
+        <v>755</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>455</v>
+        <v>756</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="9" t="s">
-        <v>851</v>
+        <v>757</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>852</v>
+        <v>758</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>402</v>
+      <c r="A129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="K129" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="L129" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9" t="s">
-        <v>854</v>
-      </c>
-      <c r="O129" s="9" t="s">
-        <v>855</v>
-      </c>
+      <c r="D129" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129" s="5"/>
+      <c r="I129" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
     </row>
     <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>296</v>
+      <c r="A130" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F130" s="5"/>
-      <c r="G130" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H130" s="5"/>
-      <c r="I130" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="L130" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="O130" s="4"/>
+      <c r="D130" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="K130" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L130" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="O130" s="9" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>299</v>
+      <c r="A131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D131" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="K131" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="L131" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="O131" s="9" t="s">
-        <v>742</v>
-      </c>
+      <c r="D131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" s="5"/>
+      <c r="I131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
     </row>
     <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>302</v>
+        <v>24</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>304</v>
+        <v>26</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>743</v>
+        <v>464</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>744</v>
+        <v>455</v>
       </c>
       <c r="L132" s="9" t="s">
-        <v>740</v>
+        <v>456</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="9" t="s">
-        <v>745</v>
+        <v>465</v>
       </c>
       <c r="O132" s="9" t="s">
-        <v>746</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9924,44 +9911,44 @@
         <v>12</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>905</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>306</v>
+        <v>28</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>306</v>
+        <v>28</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>747</v>
+        <v>464</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>748</v>
+        <v>467</v>
       </c>
       <c r="L133" s="9" t="s">
-        <v>740</v>
+        <v>461</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="9" t="s">
-        <v>749</v>
+        <v>468</v>
       </c>
       <c r="O133" s="9" t="s">
-        <v>750</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9969,44 +9956,42 @@
         <v>12</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>905</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C134" s="4"/>
       <c r="D134" s="9" t="s">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>751</v>
+        <v>602</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>752</v>
+        <v>603</v>
       </c>
       <c r="L134" s="9" t="s">
-        <v>740</v>
+        <v>604</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="9" t="s">
-        <v>753</v>
+        <v>605</v>
       </c>
       <c r="O134" s="9" t="s">
-        <v>754</v>
+        <v>606</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10014,44 +9999,42 @@
         <v>12</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>905</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C135" s="4"/>
       <c r="D135" s="9" t="s">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>755</v>
+        <v>607</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>756</v>
+        <v>608</v>
       </c>
       <c r="L135" s="9" t="s">
-        <v>461</v>
+        <v>604</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="9" t="s">
-        <v>757</v>
+        <v>609</v>
       </c>
       <c r="O135" s="9" t="s">
-        <v>758</v>
+        <v>610</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10059,29 +10042,27 @@
         <v>8</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>904</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>902</v>
       </c>
       <c r="F136" s="5"/>
-      <c r="G136" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
+      <c r="M136" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
     </row>
@@ -10090,44 +10071,42 @@
         <v>12</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>904</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C137" s="4"/>
       <c r="D137" s="9" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>500</v>
+        <v>773</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>501</v>
+        <v>774</v>
       </c>
       <c r="L137" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="9" t="s">
-        <v>502</v>
+        <v>775</v>
       </c>
       <c r="O137" s="9" t="s">
-        <v>503</v>
+        <v>776</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10135,44 +10114,42 @@
         <v>12</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>904</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C138" s="4"/>
       <c r="D138" s="9" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>74</v>
+        <v>368</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>504</v>
+        <v>815</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>455</v>
+        <v>816</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="9" t="s">
-        <v>505</v>
+        <v>817</v>
       </c>
       <c r="O138" s="9" t="s">
-        <v>506</v>
+        <v>818</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10180,44 +10157,44 @@
         <v>12</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>904</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C139" s="4"/>
       <c r="D139" s="9" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>85</v>
+        <v>374</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>510</v>
+        <v>823</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>455</v>
+        <v>824</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M139" s="9"/>
+        <v>461</v>
+      </c>
+      <c r="M139" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="N139" s="9" t="s">
-        <v>511</v>
+        <v>825</v>
       </c>
       <c r="O139" s="9" t="s">
-        <v>512</v>
+        <v>826</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10225,245 +10202,255 @@
         <v>12</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>904</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C140" s="4"/>
       <c r="D140" s="9" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="H140" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>507</v>
+        <v>827</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>455</v>
+        <v>828</v>
       </c>
       <c r="L140" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M140" s="9"/>
+        <v>829</v>
+      </c>
+      <c r="M140" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="N140" s="9" t="s">
-        <v>508</v>
+        <v>830</v>
       </c>
       <c r="O140" s="9" t="s">
-        <v>509</v>
+        <v>831</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="M141" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="O141" s="9" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F141" s="9" t="s">
+      <c r="B142" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F142" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G141" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H141" s="9" t="s">
+      <c r="G142" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H142" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I141" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J141" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="K141" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="L141" s="9" t="s">
+      <c r="I142" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="L142" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="M141" s="9"/>
-      <c r="N141" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="O141" s="9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F142" s="5"/>
-      <c r="G142" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H142" s="5"/>
-      <c r="I142" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="O142" s="9" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="143" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>905</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C143" s="4"/>
       <c r="D143" s="9" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>470</v>
+        <v>587</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>455</v>
+        <v>588</v>
       </c>
       <c r="L143" s="9" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="M143" s="9"/>
       <c r="N143" s="9" t="s">
-        <v>472</v>
+        <v>589</v>
       </c>
       <c r="O143" s="9" t="s">
-        <v>473</v>
+        <v>590</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A144" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F144" s="5"/>
-      <c r="G144" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H144" s="5"/>
-      <c r="I144" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
+      <c r="A144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="O144" s="9" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>905</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C145" s="4"/>
       <c r="D145" s="9" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="L145" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M145" s="9"/>
       <c r="N145" s="9" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="O145" s="9" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10471,50 +10458,122 @@
         <v>12</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>905</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C146" s="4"/>
       <c r="D146" s="9" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F146" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="L146" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M146" s="9"/>
       <c r="N146" s="9" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="O146" s="9" t="s">
-        <v>469</v>
-      </c>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="O147" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H148" s="5"/>
+      <c r="I148" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P147">
-    <sortCondition ref="D2:D147"/>
-    <sortCondition ref="E2:E147"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P149">
+    <sortCondition ref="D2:D149"/>
+    <sortCondition ref="E2:E149"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
+++ b/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesCabral\git\JTMP-Data-Exchange-Specs\schemas\CaseUpdates_iepd\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68148510-8F0D-4DFD-BEB7-F861F93FAD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBC3AB4-C95D-4C56-B6BB-C493AF06CDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4065" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Initiation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="920">
   <si>
     <t/>
   </si>
@@ -2326,9 +2326,6 @@
     <t>/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:EnhancedBond</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:EnhancedBond</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "BNDHST",	"fieldDesc": "NoBondFlag",	"field": "BHNONE"},
 {"db": "MC",	"table": "DigiCourt_Orleans.dbview.vw_AllWarrants",	"fieldDesc": "HoldwithoutBond",	"field": "HOLD_WITHOUT_BOND"}]</t>
   </si>
@@ -3292,6 +3289,36 @@
   </si>
   <si>
     <t>Bondsman or bonding company</t>
+  </si>
+  <si>
+    <t>/j:BailBond/j:BailBondConditionDescriptionText</t>
+  </si>
+  <si>
+    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/j:BailBondConditionDescriptionText</t>
+  </si>
+  <si>
+    <t>/j:BailBond/j:BailBondSuretyEntity</t>
+  </si>
+  <si>
+    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/j:BailBondSuretyEntity</t>
+  </si>
+  <si>
+    <t>j:BailBondConditionDescriptionText</t>
+  </si>
+  <si>
+    <t>j:BailBondSuretyEntity</t>
+  </si>
+  <si>
+    <t>structures:MetadataType</t>
+  </si>
+  <si>
+    <t>/nola-ext:UpdateType</t>
+  </si>
+  <si>
+    <t>nola-ext:MessageUpdateCode</t>
+  </si>
+  <si>
+    <t>nola-ext:UpdateCode</t>
   </si>
 </sst>
 </file>
@@ -3320,7 +3347,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3350,8 +3377,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3411,11 +3444,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3454,6 +3511,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4002,8 +4077,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C1555FB-E16C-423D-A1FA-98AD99C9E15B}" name="MappingSpreadsheet" displayName="MappingSpreadsheet" ref="A1:O148" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:O148" xr:uid="{2C1555FB-E16C-423D-A1FA-98AD99C9E15B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C1555FB-E16C-423D-A1FA-98AD99C9E15B}" name="MappingSpreadsheet" displayName="MappingSpreadsheet" ref="A1:O149" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:O149" xr:uid="{2C1555FB-E16C-423D-A1FA-98AD99C9E15B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O148">
     <sortCondition ref="C1:C148"/>
   </sortState>
@@ -4325,13 +4400,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="N149" sqref="N149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4346,19 +4421,19 @@
     <col min="8" max="8" width="13.19921875" customWidth="1"/>
     <col min="10" max="10" width="126.33203125" customWidth="1"/>
     <col min="11" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="15.1328125" customWidth="1"/>
+    <col min="14" max="14" width="20.53125" customWidth="1"/>
     <col min="15" max="15" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
@@ -4411,7 +4486,7 @@
         <v>226</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
@@ -4832,7 +4907,7 @@
         <v>690</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4845,24 +4920,32 @@
         <v>226</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="K12" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
+        <v>910</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
@@ -4874,24 +4957,32 @@
         <v>226</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="K13" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -4922,20 +5013,20 @@
         <v>258</v>
       </c>
       <c r="J14" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>692</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>693</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>604</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>694</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4952,7 +5043,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
@@ -5075,7 +5166,7 @@
         <v>288</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="4" t="s">
@@ -5125,10 +5216,10 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="O19" s="9" t="s">
         <v>887</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5160,20 +5251,20 @@
         <v>291</v>
       </c>
       <c r="J20" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>730</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5205,7 +5296,7 @@
         <v>294</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>455</v>
@@ -5215,10 +5306,10 @@
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="O21" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5229,13 +5320,13 @@
         <v>260</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>261</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="4" t="s">
@@ -5247,14 +5338,14 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>697</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O22" s="4"/>
     </row>
@@ -5266,7 +5357,7 @@
         <v>266</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>261</v>
@@ -5287,20 +5378,20 @@
         <v>267</v>
       </c>
       <c r="J23" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>702</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>703</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>477</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="O23" s="9" t="s">
         <v>704</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5311,7 +5402,7 @@
         <v>263</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>261</v>
@@ -5333,10 +5424,10 @@
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>699</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>700</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>0</v>
@@ -5345,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5356,7 +5447,7 @@
         <v>269</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>261</v>
@@ -5377,20 +5468,20 @@
         <v>270</v>
       </c>
       <c r="J25" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>706</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>707</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="O25" s="9" t="s">
         <v>708</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5401,7 +5492,7 @@
         <v>427</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>261</v>
@@ -5421,15 +5512,15 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>876</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>877</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5440,7 +5531,7 @@
         <v>272</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>261</v>
@@ -5461,7 +5552,7 @@
         <v>273</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>455</v>
@@ -5473,10 +5564,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="O27" s="9" t="s">
         <v>711</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5487,7 +5578,7 @@
         <v>275</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>261</v>
@@ -5508,10 +5599,10 @@
         <v>276</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>471</v>
@@ -5520,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="O28" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5534,7 +5625,7 @@
         <v>278</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>261</v>
@@ -5555,10 +5646,10 @@
         <v>279</v>
       </c>
       <c r="J29" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>716</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>717</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>461</v>
@@ -5567,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="O29" s="9" t="s">
         <v>718</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5581,7 +5672,7 @@
         <v>281</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>261</v>
@@ -5602,20 +5693,20 @@
         <v>282</v>
       </c>
       <c r="J30" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="L30" s="9" t="s">
         <v>721</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>722</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="O30" s="9" t="s">
         <v>723</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5626,7 +5717,7 @@
         <v>284</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>261</v>
@@ -5647,20 +5738,20 @@
         <v>285</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="O31" s="9" t="s">
         <v>726</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5671,13 +5762,13 @@
         <v>178</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="4" t="s">
@@ -5710,7 +5801,7 @@
         <v>441</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>179</v>
@@ -5733,10 +5824,10 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="O33" s="9" t="s">
         <v>893</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5747,7 +5838,7 @@
         <v>180</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>179</v>
@@ -5792,7 +5883,7 @@
         <v>186</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>179</v>
@@ -5837,7 +5928,7 @@
         <v>443</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>179</v>
@@ -5859,17 +5950,17 @@
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>895</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>896</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="O36" s="9" t="s">
         <v>897</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5880,7 +5971,7 @@
         <v>189</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>179</v>
@@ -5927,7 +6018,7 @@
         <v>192</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>179</v>
@@ -5974,7 +6065,7 @@
         <v>195</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>179</v>
@@ -6019,7 +6110,7 @@
         <v>198</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>179</v>
@@ -6066,13 +6157,13 @@
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
@@ -6101,7 +6192,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>46</v>
@@ -6146,13 +6237,13 @@
         <v>116</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="4" t="s">
@@ -6185,7 +6276,7 @@
         <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>117</v>
@@ -6232,7 +6323,7 @@
         <v>125</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>117</v>
@@ -6277,7 +6368,7 @@
         <v>122</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>117</v>
@@ -6322,7 +6413,7 @@
         <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>117</v>
@@ -6367,13 +6458,13 @@
         <v>160</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="4" t="s">
@@ -6398,7 +6489,7 @@
         <v>163</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>161</v>
@@ -6443,7 +6534,7 @@
         <v>166</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>161</v>
@@ -6488,7 +6579,7 @@
         <v>169</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>161</v>
@@ -6533,13 +6624,13 @@
         <v>327</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>328</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="4" t="s">
@@ -6564,7 +6655,7 @@
         <v>330</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>328</v>
@@ -6585,10 +6676,10 @@
         <v>331</v>
       </c>
       <c r="J53" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="K53" s="9" t="s">
         <v>770</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>771</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>461</v>
@@ -6598,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6609,7 +6700,7 @@
         <v>421</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>328</v>
@@ -6629,17 +6720,17 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="L54" s="9" t="s">
         <v>867</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>868</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="O54" s="9" t="s">
         <v>869</v>
-      </c>
-      <c r="O54" s="9" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6650,7 +6741,7 @@
         <v>424</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>328</v>
@@ -6669,20 +6760,20 @@
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="K55" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="L55" s="9" t="s">
         <v>872</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>873</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="O55" s="9" t="s">
         <v>874</v>
-      </c>
-      <c r="O55" s="9" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6693,7 +6784,7 @@
         <v>357</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>328</v>
@@ -6714,20 +6805,20 @@
         <v>358</v>
       </c>
       <c r="J56" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="K56" s="9" t="s">
         <v>804</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>805</v>
       </c>
       <c r="L56" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="O56" s="9" t="s">
         <v>806</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6738,7 +6829,7 @@
         <v>378</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>328</v>
@@ -6759,10 +6850,10 @@
         <v>379</v>
       </c>
       <c r="J57" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="K57" s="9" t="s">
         <v>832</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>833</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>461</v>
@@ -6770,7 +6861,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6781,7 +6872,7 @@
         <v>336</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>328</v>
@@ -6802,20 +6893,20 @@
         <v>337</v>
       </c>
       <c r="J58" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="K58" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="L58" s="9" t="s">
         <v>778</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>779</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="O58" s="9" t="s">
         <v>780</v>
-      </c>
-      <c r="O58" s="9" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6826,7 +6917,7 @@
         <v>339</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>328</v>
@@ -6847,7 +6938,7 @@
         <v>340</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K59" s="9" t="s">
         <v>592</v>
@@ -6859,10 +6950,10 @@
         <v>0</v>
       </c>
       <c r="N59" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="O59" s="9" t="s">
         <v>783</v>
-      </c>
-      <c r="O59" s="9" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6873,7 +6964,7 @@
         <v>342</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>328</v>
@@ -6894,7 +6985,7 @@
         <v>343</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>666</v>
@@ -6906,10 +6997,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="O60" s="9" t="s">
         <v>786</v>
-      </c>
-      <c r="O60" s="9" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6920,7 +7011,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>328</v>
@@ -6941,20 +7032,20 @@
         <v>370</v>
       </c>
       <c r="J61" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="K61" s="9" t="s">
         <v>819</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>820</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="O61" s="9" t="s">
         <v>821</v>
-      </c>
-      <c r="O61" s="9" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6965,7 +7056,7 @@
         <v>345</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>328</v>
@@ -6986,20 +7077,20 @@
         <v>346</v>
       </c>
       <c r="J62" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="K62" s="9" t="s">
         <v>788</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>789</v>
       </c>
       <c r="L62" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="O62" s="9" t="s">
         <v>790</v>
-      </c>
-      <c r="O62" s="9" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7010,7 +7101,7 @@
         <v>348</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>328</v>
@@ -7031,20 +7122,20 @@
         <v>349</v>
       </c>
       <c r="J63" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="K63" s="9" t="s">
         <v>792</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>793</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="O63" s="9" t="s">
         <v>794</v>
-      </c>
-      <c r="O63" s="9" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7055,7 +7146,7 @@
         <v>351</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>328</v>
@@ -7076,20 +7167,20 @@
         <v>352</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>455</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="O64" s="9" t="s">
         <v>798</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7100,7 +7191,7 @@
         <v>354</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>328</v>
@@ -7121,20 +7212,20 @@
         <v>355</v>
       </c>
       <c r="J65" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="K65" s="9" t="s">
         <v>800</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>801</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="O65" s="9" t="s">
         <v>802</v>
-      </c>
-      <c r="O65" s="9" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7145,7 +7236,7 @@
         <v>363</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>328</v>
@@ -7166,10 +7257,10 @@
         <v>364</v>
       </c>
       <c r="J66" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="K66" s="9" t="s">
         <v>811</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>812</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>461</v>
@@ -7178,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="N66" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="O66" s="9" t="s">
         <v>813</v>
-      </c>
-      <c r="O66" s="9" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7192,7 +7283,7 @@
         <v>429</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>328</v>
@@ -7214,17 +7305,17 @@
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="L67" s="9" t="s">
         <v>879</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>880</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="O67" s="9" t="s">
         <v>881</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7235,7 +7326,7 @@
         <v>360</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>328</v>
@@ -7256,20 +7347,20 @@
         <v>361</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L68" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="O68" s="9" t="s">
         <v>809</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7280,13 +7371,13 @@
         <v>72</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="4" t="s">
@@ -7311,7 +7402,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>73</v>
@@ -7356,7 +7447,7 @@
         <v>78</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>73</v>
@@ -7401,7 +7492,7 @@
         <v>83</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>73</v>
@@ -7446,7 +7537,7 @@
         <v>80</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>73</v>
@@ -7491,7 +7582,7 @@
         <v>86</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>73</v>
@@ -7566,7 +7657,7 @@
         <v>566</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7583,7 +7674,7 @@
         <v>135</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="4" t="s">
@@ -7804,7 +7895,7 @@
         <v>52</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="4" t="s">
@@ -7831,13 +7922,13 @@
         <v>89</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="4" t="s">
@@ -7864,7 +7955,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>90</v>
@@ -7909,7 +8000,7 @@
         <v>183</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>179</v>
@@ -7954,7 +8045,7 @@
         <v>438</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>179</v>
@@ -7974,15 +8065,15 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="L85" s="9" t="s">
         <v>890</v>
-      </c>
-      <c r="L85" s="9" t="s">
-        <v>891</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7993,7 +8084,7 @@
         <v>201</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>179</v>
@@ -8038,7 +8129,7 @@
         <v>205</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>179</v>
@@ -8083,7 +8174,7 @@
         <v>445</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>179</v>
@@ -8103,7 +8194,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L88" s="9" t="s">
         <v>538</v>
@@ -8111,7 +8202,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8122,7 +8213,7 @@
         <v>212</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>179</v>
@@ -8161,7 +8252,7 @@
         <v>215</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>179</v>
@@ -8200,7 +8291,7 @@
         <v>209</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>179</v>
@@ -8245,7 +8336,7 @@
         <v>218</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>179</v>
@@ -8288,7 +8379,7 @@
         <v>222</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>179</v>
@@ -8327,13 +8418,13 @@
         <v>317</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>318</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="4" t="s">
@@ -8350,7 +8441,7 @@
         <v>315</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O94" s="4"/>
     </row>
@@ -8362,7 +8453,7 @@
         <v>320</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>318</v>
@@ -8383,20 +8474,20 @@
         <v>321</v>
       </c>
       <c r="J95" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="K95" s="9" t="s">
         <v>761</v>
-      </c>
-      <c r="K95" s="9" t="s">
-        <v>762</v>
       </c>
       <c r="L95" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="O95" s="9" t="s">
         <v>763</v>
-      </c>
-      <c r="O95" s="9" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8407,7 +8498,7 @@
         <v>324</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>318</v>
@@ -8428,20 +8519,20 @@
         <v>325</v>
       </c>
       <c r="J96" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="K96" s="9" t="s">
         <v>765</v>
-      </c>
-      <c r="K96" s="9" t="s">
-        <v>766</v>
       </c>
       <c r="L96" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="O96" s="9" t="s">
         <v>767</v>
-      </c>
-      <c r="O96" s="9" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8452,7 +8543,7 @@
         <v>411</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>318</v>
@@ -8474,17 +8565,17 @@
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="O97" s="9" t="s">
         <v>860</v>
-      </c>
-      <c r="O97" s="9" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8495,13 +8586,13 @@
         <v>150</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="4" t="s">
@@ -8526,13 +8617,13 @@
         <v>314</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>315</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="4" t="s">
@@ -8550,7 +8641,7 @@
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8561,13 +8652,13 @@
         <v>95</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="4" t="s">
@@ -8594,7 +8685,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>96</v>
@@ -8639,7 +8730,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>96</v>
@@ -8684,13 +8775,13 @@
         <v>131</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="4" t="s">
@@ -8721,13 +8812,13 @@
         <v>37</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="4" t="s">
@@ -8754,7 +8845,7 @@
         <v>40</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>38</v>
@@ -8799,13 +8890,13 @@
         <v>104</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -8828,7 +8919,7 @@
         <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>105</v>
@@ -8871,7 +8962,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>105</v>
@@ -8916,7 +9007,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>105</v>
@@ -8961,13 +9052,13 @@
         <v>407</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>408</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="4" t="s">
@@ -8992,7 +9083,7 @@
         <v>417</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>408</v>
@@ -9017,14 +9108,14 @@
         <v>645</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="O111" s="9" t="s">
         <v>862</v>
-      </c>
-      <c r="O111" s="9" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9035,7 +9126,7 @@
         <v>415</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>408</v>
@@ -9064,10 +9155,10 @@
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="O112" s="9" t="s">
         <v>862</v>
-      </c>
-      <c r="O112" s="9" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9078,7 +9169,7 @@
         <v>419</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>408</v>
@@ -9100,17 +9191,17 @@
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="L113" s="9" t="s">
         <v>735</v>
-      </c>
-      <c r="L113" s="9" t="s">
-        <v>736</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="O113" s="9" t="s">
         <v>865</v>
-      </c>
-      <c r="O113" s="9" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9121,13 +9212,13 @@
         <v>381</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>382</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="4" t="s">
@@ -9152,7 +9243,7 @@
         <v>387</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>382</v>
@@ -9173,20 +9264,20 @@
         <v>388</v>
       </c>
       <c r="J115" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="K115" s="9" t="s">
         <v>839</v>
-      </c>
-      <c r="K115" s="9" t="s">
-        <v>840</v>
       </c>
       <c r="L115" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="O115" s="9" t="s">
         <v>841</v>
-      </c>
-      <c r="O115" s="9" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9197,7 +9288,7 @@
         <v>385</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>382</v>
@@ -9218,20 +9309,20 @@
         <v>386</v>
       </c>
       <c r="J116" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="K116" s="9" t="s">
         <v>835</v>
-      </c>
-      <c r="K116" s="9" t="s">
-        <v>836</v>
       </c>
       <c r="L116" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="O116" s="9" t="s">
         <v>837</v>
-      </c>
-      <c r="O116" s="9" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9242,7 +9333,7 @@
         <v>390</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>382</v>
@@ -9263,20 +9354,20 @@
         <v>391</v>
       </c>
       <c r="J117" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="K117" s="9" t="s">
         <v>843</v>
-      </c>
-      <c r="K117" s="9" t="s">
-        <v>844</v>
       </c>
       <c r="L117" s="9" t="s">
         <v>604</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="O117" s="9" t="s">
         <v>845</v>
-      </c>
-      <c r="O117" s="9" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9287,13 +9378,13 @@
         <v>393</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>394</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="4" t="s">
@@ -9318,7 +9409,7 @@
         <v>396</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>394</v>
@@ -9339,7 +9430,7 @@
         <v>397</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K119" s="9" t="s">
         <v>666</v>
@@ -9349,10 +9440,10 @@
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="O119" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="O119" s="9" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9363,7 +9454,7 @@
         <v>405</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>394</v>
@@ -9385,17 +9476,17 @@
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L120" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="O120" s="9" t="s">
         <v>857</v>
-      </c>
-      <c r="O120" s="9" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9406,7 +9497,7 @@
         <v>399</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>394</v>
@@ -9427,7 +9518,7 @@
         <v>400</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K121" s="9" t="s">
         <v>455</v>
@@ -9437,10 +9528,10 @@
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="O121" s="9" t="s">
         <v>851</v>
-      </c>
-      <c r="O121" s="9" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9451,7 +9542,7 @@
         <v>402</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>394</v>
@@ -9472,7 +9563,7 @@
         <v>403</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K122" s="9" t="s">
         <v>455</v>
@@ -9482,10 +9573,10 @@
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="O122" s="9" t="s">
         <v>854</v>
-      </c>
-      <c r="O122" s="9" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9496,13 +9587,13 @@
         <v>296</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>297</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="4" t="s">
@@ -9514,14 +9605,14 @@
       </c>
       <c r="J123" s="4"/>
       <c r="K123" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="L123" s="4" t="s">
         <v>735</v>
-      </c>
-      <c r="L123" s="4" t="s">
-        <v>736</v>
       </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O123" s="4"/>
     </row>
@@ -9533,7 +9624,7 @@
         <v>299</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>297</v>
@@ -9554,20 +9645,20 @@
         <v>300</v>
       </c>
       <c r="J124" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="K124" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="K124" s="9" t="s">
+      <c r="L124" s="9" t="s">
         <v>739</v>
-      </c>
-      <c r="L124" s="9" t="s">
-        <v>740</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="O124" s="9" t="s">
         <v>741</v>
-      </c>
-      <c r="O124" s="9" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9578,7 +9669,7 @@
         <v>302</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>297</v>
@@ -9599,20 +9690,20 @@
         <v>303</v>
       </c>
       <c r="J125" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="K125" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="K125" s="9" t="s">
-        <v>744</v>
-      </c>
       <c r="L125" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="O125" s="9" t="s">
         <v>745</v>
-      </c>
-      <c r="O125" s="9" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9623,7 +9714,7 @@
         <v>305</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>297</v>
@@ -9644,20 +9735,20 @@
         <v>306</v>
       </c>
       <c r="J126" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="K126" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="K126" s="9" t="s">
-        <v>748</v>
-      </c>
       <c r="L126" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="O126" s="9" t="s">
         <v>749</v>
-      </c>
-      <c r="O126" s="9" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9668,7 +9759,7 @@
         <v>308</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>297</v>
@@ -9689,20 +9780,20 @@
         <v>309</v>
       </c>
       <c r="J127" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="K127" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="K127" s="9" t="s">
-        <v>752</v>
-      </c>
       <c r="L127" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="O127" s="9" t="s">
         <v>753</v>
-      </c>
-      <c r="O127" s="9" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9713,7 +9804,7 @@
         <v>311</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>297</v>
@@ -9734,20 +9825,20 @@
         <v>312</v>
       </c>
       <c r="J128" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="K128" s="9" t="s">
         <v>755</v>
-      </c>
-      <c r="K128" s="9" t="s">
-        <v>756</v>
       </c>
       <c r="L128" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="O128" s="9" t="s">
         <v>757</v>
-      </c>
-      <c r="O128" s="9" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9758,13 +9849,13 @@
         <v>30</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="4" t="s">
@@ -9791,7 +9882,7 @@
         <v>33</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>31</v>
@@ -9836,13 +9927,13 @@
         <v>21</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="4" t="s">
@@ -9869,7 +9960,7 @@
         <v>24</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>22</v>
@@ -9914,7 +10005,7 @@
         <v>27</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>22</v>
@@ -10049,7 +10140,7 @@
         <v>68</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -10093,20 +10184,20 @@
         <v>334</v>
       </c>
       <c r="J137" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="K137" s="9" t="s">
         <v>773</v>
-      </c>
-      <c r="K137" s="9" t="s">
-        <v>774</v>
       </c>
       <c r="L137" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="O137" s="9" t="s">
         <v>775</v>
-      </c>
-      <c r="O137" s="9" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10136,20 +10227,20 @@
         <v>367</v>
       </c>
       <c r="J138" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="K138" s="9" t="s">
         <v>815</v>
-      </c>
-      <c r="K138" s="9" t="s">
-        <v>816</v>
       </c>
       <c r="L138" s="9" t="s">
         <v>461</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="O138" s="9" t="s">
         <v>817</v>
-      </c>
-      <c r="O138" s="9" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10179,10 +10270,10 @@
         <v>373</v>
       </c>
       <c r="J139" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="K139" s="9" t="s">
         <v>823</v>
-      </c>
-      <c r="K139" s="9" t="s">
-        <v>824</v>
       </c>
       <c r="L139" s="9" t="s">
         <v>461</v>
@@ -10191,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="N139" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="O139" s="9" t="s">
         <v>825</v>
-      </c>
-      <c r="O139" s="9" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10224,22 +10315,22 @@
         <v>376</v>
       </c>
       <c r="J140" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="K140" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="K140" s="9" t="s">
+      <c r="L140" s="9" t="s">
         <v>828</v>
-      </c>
-      <c r="L140" s="9" t="s">
-        <v>829</v>
       </c>
       <c r="M140" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N140" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="O140" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="O140" s="9" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10266,19 +10357,19 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="L141" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="L141" s="9" t="s">
+      <c r="M141" s="9" t="s">
         <v>884</v>
-      </c>
-      <c r="M141" s="9" t="s">
-        <v>885</v>
       </c>
       <c r="N141" s="9" t="s">
         <v>483</v>
       </c>
       <c r="O141" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10551,7 +10642,7 @@
         <v>70</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="4" t="s">
@@ -10569,6 +10660,31 @@
       </c>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
+    </row>
+    <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="15"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="19" t="s">
+        <v>919</v>
+      </c>
+      <c r="L149" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="O149" s="19" t="s">
+        <v>917</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P149">

--- a/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
+++ b/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesCabral\git\JTMP-Data-Exchange-Specs\schemas\CaseUpdates_iepd\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBC3AB4-C95D-4C56-B6BB-C493AF06CDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0389824B-13A5-4CF8-A8F9-25A0FC4D33F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="944">
   <si>
     <t/>
   </si>
@@ -1428,10 +1428,6 @@
     <t>/j:OrganizationAugmentation/j:OrganizationORIIdentification/IdentificationID</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID
-/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgency/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMFLDR",	"fieldDesc": "Agency",	"field": "IFAGCY"},
 {"db": "AS400_JMS",	"table": "IMDSPL",	"fieldDesc": "Agency",	"field": "DLAGCY"},
 {"db": "AS400_JMS",	"table": "IMTYPH",	"fieldDesc": "Agency",	"field": "ITAGCY"}]</t>
@@ -1450,26 +1446,16 @@
 /j:CaseCourt/OrganizationName</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/OrganizationName
-/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgency/OrganizationName</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "TEXTME",	"fieldDesc": "WitnessNumber",	"field": "TMNOSEQ"}]</t>
   </si>
   <si>
     <t>/j:Witness/j:WitnessIdentification/IdentificationID</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseWitness/j:WitnessIdentification/IdentificationID</t>
-  </si>
-  <si>
     <t>j:WitnessSequenceNumberText</t>
   </si>
   <si>
     <t>/j:CaseWitness/j:WitnessSequenceNumberText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseWitness/j:WitnessSequenceNumberText</t>
   </si>
   <si>
     <t>[{"db": "EPR",	"table": "VictimPersons",	"fieldDesc": "VictimNumber",	"field": "VictimNumber"},
@@ -1481,9 +1467,6 @@
   </si>
   <si>
     <t>/j:CaseCharge/j:VictimIdentification/IdentificationID</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:VictimIdentification/IdentificationID</t>
   </si>
   <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ArrestingOfficer1BadgeNumber",	"field": "IDBADGAO"},
@@ -1505,9 +1488,6 @@
 /j:CaseOfficial/nola-ext:CaseOfficialAugmentation/j:EnforcementOfficial/j:EnforcementOfficialBadgeIdentification/IdentificationID</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseOfficial/nola-ext:CaseOfficialAugmentation/j:EnforcementOfficial/j:EnforcementOfficialBadgeIdentification/IdentificationID</t>
-  </si>
-  <si>
     <t>nc:OrganizationType</t>
   </si>
   <si>
@@ -1522,9 +1502,6 @@
   </si>
   <si>
     <t>/CourtCase/j:CaseAugmentation/j:CaseExhibit/j:ExhibitEvidence/j:EvidenceQuantityText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseExhibit/j:ExhibitEvidence/j:EvidenceQuantityText</t>
   </si>
   <si>
     <t>/Case/j:CaseAugmentation/j:CaseCourtEvent/ActivityComment/</t>
@@ -1600,9 +1577,6 @@
   <si>
     <t>/nc:CourtCase/nc:CaseAugmentationPoint/j:CaseAugmentation/j:ChargeStatute/j:StatuteDescriptionText
 /j:CaseCharge/j:ChargeStatute/j:StatuteDescriptionText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/j:StatuteDescriptionText</t>
   </si>
   <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeStatute",	"field": "IDSTA1"},
@@ -1635,9 +1609,6 @@
     <t>/nc:CourtCase/nc:CaseAugmentationPoint/j:CaseAugmentation/j:CaseAmendedCharge/j:ChargeStatute/j:StatuteCategoryAbstract/j:StatuteCategoryText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/j:StatuteCodeIdentification/IdentificationID</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeViolation",	"field": "IDVIO1"},
 {"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeViolation",	"field": "IDVIO2"},
 {"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeViolation",	"field": "IDVIO3"},
@@ -1654,9 +1625,6 @@
   <si>
     <t>/j:ArrestCharge/j:ChargeStatute/j:StatuteCodeSectionIdentification/IdentificationID
 /j:CaseCharge/j:ChargeStatute/j:StatuteCodeSectionIdentification/IdentificationID</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/j:StatuteCodeSectionIdentification/IdentificationID</t>
   </si>
   <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeSubparagraph",	"field": "IDSUB1"},
@@ -1679,9 +1647,6 @@
 /j:CaseCharge/j:ChargeStatute/nola-ext:ChargeStatuteAugmentation/nola-ext:StatuteCodeSectionSubparagraphIdentification/IdentificationID</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/nola-ext:ChargeStatuteAugmentation/nola-ext:StatuteCodeSectionSubparagraphIdentification/IdentificationID</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMCHGT",	"fieldDesc": "SupremeCourtChargeCode",	"field": "CTSCCC"},
 {"db": "CASTNetDB",	"table": "Charge",	"fieldDesc": "SupremeCourtChargeCode",	"field": "SupremeCourtChargeCode"}]</t>
   </si>
@@ -1691,9 +1656,6 @@
   <si>
     <t>/j:CaseAmendedCharge/j:ChargeStatute/j:StatuteText
 /j:CaseCharge/j:ChargeStatute/j:StatuteText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/j:StatuteText</t>
   </si>
   <si>
     <t>nc:PersonType</t>
@@ -1709,10 +1671,6 @@
 /nc:CaseAugmentationPoint/j:CaseAugmentation/j:CaseDefenseAttorney/j:CaseOfficialRoleDescriptionText 
 /nc:CaseAugmentationPoint/j:CaseAugmentation/j:CaseDefenseAttorney
 /j:Attorney/j:JudicialOfficialBarMembership/j:JudicialOfficialBarIdentification/IdentificationID</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseProsecutionAttorney/j:JudicialOfficialBarMembership/j:JudicialOfficialBarIdentification/IdentificationID
-/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefenseAttorney/j:JudicialOfficialBarMembership/j:JudicialOfficialBarIdentification/IdentificationID</t>
   </si>
   <si>
     <t>[{"db": "AS400_JMS",	"table": "IMCHGD",	"fieldDesc": "MagistrateNumber",	"field": "ICMAGN"},
@@ -1739,9 +1697,6 @@
 </t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseJudge/j:JudicialOfficialRegistrationIdentification/IdentificationID</t>
-  </si>
-  <si>
     <t>j:JudicialOfficialCategoryText</t>
   </si>
   <si>
@@ -1750,10 +1705,6 @@
 /j:CaseJudge/j:JudicialOfficialCategoryText</t>
   </si>
   <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseJudge/j:JudicialOfficialCategoryText
-</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "PARTIES",	"fieldDesc": "CourtPartyType",	"field": "PCTYPE"}]</t>
   </si>
   <si>
@@ -1763,9 +1714,6 @@
     <t>/j:CaseAugmentation/j:CaseOtherEntity/nola-ext:EntityAugmentation/nola-ext:CourtCasePartyRoleCode</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseOtherEntity/nola-ext:EntityAugmentation/nola-ext:CourtCasePartyRoleCode</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "PARTIES",	"fieldDesc": "CourtPartyName",	"field": "PCNAME"}]</t>
   </si>
   <si>
@@ -1775,16 +1723,10 @@
     <t>/j:CaseAugmentation/j:CaseOtherEntity/nola-ext:EntityAugmentation/nola-ext:CourtCasePartyRoleText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseOtherEntity/nola-ext:EntityAugmentation/nola-ext:CourtCasePartyRoleText</t>
-  </si>
-  <si>
     <t>j:CaseOtherEntity</t>
   </si>
   <si>
     <t>nc:EntityType</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseOtherEntity/</t>
   </si>
   <si>
     <t>j:CourtCaseStatusText</t>
@@ -1798,10 +1740,6 @@
 /nc:CaseDocketID</t>
   </si>
   <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/j:CourtEventAction/j:CourtCaseStatusText
-</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "MAGLST",	"fieldDesc": "MagistrateListDate",	"field": "MLDATE"},
 {"db": "AS400_CDC_CMS",	"table": "MAGLST",	"fieldDesc": "MagistrateListHours",	"field": "MLTMHH"},
 {"db": "AS400_CDC_CMS",	"table": "MAGLST",	"fieldDesc": "MagistrateListMinutes",	"field": "MLTMMM"}]</t>
@@ -1814,9 +1752,6 @@
   </si>
   <si>
     <t>/j:CaseCourt/nola-ext:CourtDocketAugmentation/ActivityDate/DateTime</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtDocketAugmentation/ActivityDate/DateTime</t>
   </si>
   <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "TEXTME",	"fieldDesc": "CourtCaseDocketMasterText",	"field": "TMTXTD"}]</t>
@@ -1846,9 +1781,6 @@
     <t>/j:CaseCourt/nola-ext:CourtDocketAugmentation/ActivitySequenceNumeric/niem-xs:decimal</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtDocketAugmentation/ActivitySequenceNumeric/niem-xs:decimal</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "MAGDOCK",	"fieldDesc": "Status",	"field": "MDSTAT"}]</t>
   </si>
   <si>
@@ -1856,9 +1788,6 @@
   </si>
   <si>
     <t>/j:CaseCourt/nola-ext:CourtDocketAugmentation/ActivityStatus/StatusText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtDocketAugmentation/ActivityStatus/StatusText</t>
   </si>
   <si>
     <t xml:space="preserve"> nc : PersonType </t>
@@ -1886,9 +1815,6 @@
   </si>
   <si>
     <t>/j:CaseCourtEvent/j:CourtEventAction/ActivityReasonText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/j:CourtEventAction/ActivityReasonText</t>
   </si>
   <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "CASEVD",	"fieldDesc": "CourtResultCode",	"field": "CXRSLT"},
@@ -1902,9 +1828,6 @@
   </si>
   <si>
     <t>/CourtCase/CaseResolutionText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/CaseResolutionText</t>
   </si>
   <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "NextCourtDate",	"field": "IDCDTE"},
@@ -1931,9 +1854,6 @@
 /j:CourtEvent/j:CourtEventSchedule/ScheduleDate/DateTime</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/ActivityDate/DateTime</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "CASEVT",	"fieldDesc": "CourtCaseEventCode",	"field": "CVEVNT"},
 {"db": "AS400_CDC_CMS",	"table": "CASEVT_CASEVD_UNION",	"fieldDesc": "CourtCaseEventCode",	"field": "CVEVNT"},
 {"db": "AS400_CDC_CMS",	"table": "CHRGLOG",	"fieldDesc": "CourtCaseEventCode",	"field": "CXEVNT"},
@@ -1949,9 +1869,6 @@
     <t>/j:CourtEventCase/nola-ext:CaseAugmentation/nola-ext:CourtCaseEventTypeCode</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/j:CourtEventAction/ActivityIdentification/IdentifcationID</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMMSTR",	"fieldDesc": "Employer",	"field": "IMEMPR"},
 {"db": "AS400_JMS",	"table": "IMFLDR",	"fieldDesc": "Employer",	"field": "IFEMPR"},
 {"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "Employer",	"field": "IDEMPR"}]</t>
@@ -1991,16 +1908,10 @@
     <t>/j:CaseCharge/nola-ext:AFISChargeAugmentation/j:ChargeDescriptionText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:AFISChargeAugmentation/j:ChargeDescriptionText</t>
-  </si>
-  <si>
     <t>[{"db": "CASTNetDB",	"table": "Charge",	"fieldDesc": "AfisChargeCode",	"field": "AfisChargeCode"}]</t>
   </si>
   <si>
     <t>/j:CaseCharge/nola-ext:AFISChargeAugmentation/j:ChargeIdentification/IdentificationID</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:AFISChargeAugmentation/j:ChargeIdentification/IdentificationID</t>
   </si>
   <si>
     <t>[{"db": "CASTNetDB",	"table": "Charge",	"fieldDesc": "AfisQualifier",		"field": "AfisQualifier"},
@@ -2013,9 +1924,6 @@
     <t>/j:CaseCharge/nola-ext:AFISChargeAugmentation/j:ChargeQualifierText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:AFISChargeAugmentation/j:ChargeQualifierText</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMFLDR",	"fieldDesc": "AFISReceived",	"field": "IFAFSR"}]</t>
   </si>
   <si>
@@ -2052,10 +1960,6 @@
     <t>/j:CourtOrder/j:CourtOrderIssuingCourt/</t>
   </si>
   <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/ActivityComment/CommentText
-</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "CASEVT_CASEVD_UNION",	"fieldDesc": "Cancelled Flag",	"field": "Cancelled"}]</t>
   </si>
   <si>
@@ -2065,9 +1969,6 @@
     <t>/j:CourtCase/j:CourtType/nc:CaseAugmentationPoint/nola-ext:CourtCaseCancelledFlag</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/nola-ext:CaseAugmentation/nola-ext:CourtCaseCancelledFlag</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "TEXTME",	"fieldDesc": "CourtCaseDefendantSequence",	"field": "TMDEFSEQ"}]</t>
   </si>
   <si>
@@ -2075,9 +1976,6 @@
   </si>
   <si>
     <t>/CourtCase/j:CaseAugmentation/j:CaseDefendantQuantityText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantQuantityText</t>
   </si>
   <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMCHGD",	"fieldDesc": "CourtCaseNumber (Docket Number)",	"field": "ICDOCN"},
@@ -2111,9 +2009,6 @@
     <t>/nc:CourtCase/nc:CaseDocketID</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/CaseDocketID</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "TEXTME",	"fieldDesc": "CourtCaseMasterSequence",	"field": "TMMASTSEQ"}]</t>
   </si>
   <si>
@@ -2123,26 +2018,16 @@
     <t>/j:CaseCourtEvent/j:CourtEventSequenceID</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/j:CourtEventSequenceID</t>
-  </si>
-  <si>
     <t>[{"db": "MC",	"table": "Digicourt_Orleans.dbview.vw_CriminalCaseFileDetail", "fieldDesc": "CourtCaseStatus", "field": " CASE_STATUS"}]</t>
   </si>
   <si>
     <t>/ActivityStatus/StatusText</t>
   </si>
   <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/ActivityStatus/StatusText
-</t>
-  </si>
-  <si>
     <t>nc:CaseTitleText</t>
   </si>
   <si>
     <t>/CourtCase/CaseTitleText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/CaseTitleText</t>
   </si>
   <si>
     <t>[{"db": "MC",	"table": "Digicourt_Orleans.dbview.vw_ArrestDetail",	"fieldDesc": "CaseType",	"field": "casetype"},
@@ -2158,9 +2043,6 @@
 /Case/CaseGeneralCategoryText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/CaseGeneralCategoryText</t>
-  </si>
-  <si>
     <t>j:CaseDefenseAttorney</t>
   </si>
   <si>
@@ -2170,47 +2052,22 @@
     <t>/j:CaseAugmentation/j:CaseDefenseAttorney</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefenseAttorney</t>
-  </si>
-  <si>
     <t>nc:RoleOfPerson</t>
   </si>
   <si>
     <t>/j:Booking/j:BookingSubject/RoleOfPerson/</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson</t>
-  </si>
-  <si>
     <t>j:CaseProsecutionAttorney</t>
   </si>
   <si>
     <t>/j:CaseAugmentation/j:CaseProsecutionAttorney</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseProsecutionAttorney</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseJudge/</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseOfficial/nola-ext:CaseOfficialAugmentation/j:EnforcementOfficial</t>
-  </si>
-  <si>
     <t>j:ChargeVictim</t>
   </si>
   <si>
     <t>j:VictimType</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseWitness/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond
-</t>
   </si>
   <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ActiveFlag",	"field": "IDACTV"},
@@ -2218,9 +2075,6 @@
   </si>
   <si>
     <t>/j:BailBond/ActivityStatus/StatusIssuerIdentification/IdentificationID</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/ActivityStatus/StatusIssuerIdentification/IdentificationID</t>
   </si>
   <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "Bond",	"field": "IDBOND"},
@@ -2243,10 +2097,6 @@
 /j:CaseCharge/hs:ChargeAugmentation/j:BailBond/j:BailBondAmount/Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/j:BailBondAmount/Amount
-</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "BNDHST",	"fieldDesc": "BondHistoryDate",	"field": "BHDATE"}]</t>
   </si>
   <si>
@@ -2259,27 +2109,18 @@
     <t>/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/ActivityDate/Date</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/ActivityDate/Date</t>
-  </si>
-  <si>
     <t>[{"db": "CASTNetDB",	"table": "SpecialOfficerCommission",	"fieldDesc": "BondId",	"field": "BondId"}]</t>
   </si>
   <si>
     <t>/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/ActivityIdentification/IdentificationID</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/ActivityIdentification/IdentificationID</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMBPYD",	"fieldDesc": "BondPaid",	"field": "BDBNDP"}]</t>
   </si>
   <si>
     <t>/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondPaidAmount/Amount</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondPaidAmount/Amount</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMBPYD",	"fieldDesc": "BondPaymentKey",	"field": "BDPAYK"}]</t>
   </si>
   <si>
@@ -2289,9 +2130,6 @@
     <t>/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondPaymentKey</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondPaymentKey</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMBPYD",	"fieldDesc": "ReceiptNumber",	"field": "BDRCPN"}]</t>
   </si>
   <si>
@@ -2301,9 +2139,6 @@
     <t>/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondReceiptNumber</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondReceiptNumber</t>
-  </si>
-  <si>
     <t>[{"db": "MC",	"table": "DigiCourt_Orleans.dbview.vw_AllWarrants",	"fieldDesc": "InitialBondDate",	"field": "INITIAL_BOND_TYPE"}]</t>
   </si>
   <si>
@@ -2311,9 +2146,6 @@
   </si>
   <si>
     <t>/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondType</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondType</t>
   </si>
   <si>
     <t>[{"db": "AS400_JMS",	"table": "IMCHGT",	"fieldDesc": "ChargeEnhancedBond",	"field": "CTEBND"},
@@ -2336,9 +2168,6 @@
     <t>/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:HoldWithoutBond</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:HoldWithoutBond</t>
-  </si>
-  <si>
     <t xml:space="preserve"> j:Court </t>
   </si>
   <si>
@@ -2355,9 +2184,6 @@
     <t>nc:ProperNameTextType</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtAugmentation/AddressCountyName</t>
-  </si>
-  <si>
     <t>[{"db": "CASTNetDB",	"table": "PersonChargeDisposition",	"fieldDesc": "Court",	"field": "Court"}]</t>
   </si>
   <si>
@@ -2368,9 +2194,6 @@
  </t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/j:OrganizationAugmentation/</t>
-  </si>
-  <si>
     <t>[{"db": "MC",	"table": "Digicourt_Orleans.dbview.vw_CriminalCaseFileDetail",	"fieldDesc": "CourtCaseSection (Division)",	"field": "division"},
 {"db": "MC",	"table": "DigiCourt_Orleans.dbview.vw_AllWarrants",	"fieldDesc": "CourtSection (Division)",	"field": "division"}]</t>
   </si>
@@ -2379,9 +2202,6 @@
   </si>
   <si>
     <t>/j:CaseCourt/j:CourtDivisionText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/j:CourtDivisionText</t>
   </si>
   <si>
     <t>[{"db": "CASTNetDB",	"table": "PersonProbation",	"fieldDesc": "CourtId",	"field": "CourtId"},
@@ -2393,17 +2213,11 @@
     <t>/j:CaseCourt/OrganizationIdentification/IdentificationID</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/OrganizationIdentification/IdentificationID</t>
-  </si>
-  <si>
     <t>j:CourtName</t>
   </si>
   <si>
     <t xml:space="preserve">/j:CaseCourt/j:CourtName
 </t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/j:CourtName</t>
   </si>
   <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "CourtSection",	"field": "IDCSEC"},
@@ -2429,9 +2243,6 @@
     <t>/OrganizationLocation/LocationPart/LocationRoomText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/OrganizationLocation/LocationPart/LocationRoomText</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMCHGT",	"fieldDesc": "CourtType",	"field": "CTCTYP"},
 {"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "CourtType",	"field": "IDCTYP"},
 {"db": "AS400_JMS",	"table": "IMDSPL",	"fieldDesc": "CourtType",	"field": "DLCRTT"},
@@ -2449,16 +2260,10 @@
 </t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/j:CourtCategoryCode</t>
-  </si>
-  <si>
     <t>nola-ext:CourtCategoryText</t>
   </si>
   <si>
     <t>/j:CaseCourt/nola-ext:CourtCategoryAbstract/nola-ext:CourtCategoryText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtCategoryAbstract/nola-ext:CourtCategoryText</t>
   </si>
   <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "SCNSequenceNumber",	"field": "IDSNS1"},
@@ -2476,10 +2281,6 @@
   </si>
   <si>
     <t>/j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgencyRecordIdentification/nola-ext:IdentificationAugmentation/nola-ext:IdentificationSequenceNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgencyRecordIdentification/nola-ext:IdentificationAugmentation/nola-ext:IdentificationSequenceNumber
-</t>
   </si>
   <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "SCN",	"field": "IDSCNO"},
@@ -2502,10 +2303,6 @@
   <si>
     <t>/j:Booking/j:BookingAgencyRecordIdentification/IdentificationID
 /j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgencyRecordIdentification/IdentificationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgencyRecordIdentification/IdentificationID
-</t>
   </si>
   <si>
     <t>nc:PersonName</t>
@@ -2551,9 +2348,6 @@
 /nc:RoleOfPerson/nc:PersonName/nc:GivenName</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonName/PersonFullName</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ArrestingOfficerName",	"field": "IDNAMEAO"},
 {"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "TransportingOfficerName",	"field": "IDNAMETO"},
 {"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "WitnessName1",	"field": "IDNAMEW1"},
@@ -2573,9 +2367,6 @@
   </si>
   <si>
     <t>/nc:CourtCase/nc:CaseAugmentationPoint/j:CaseAugmentation/j:CaseDefendantParty/nc:EntityPerson/nc:PersonName/nc:PersonFullName</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim/RoleOfPerson/PersonName/PersonFullName</t>
   </si>
   <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "LastName",	"field": "IDLNAM"},
@@ -2603,10 +2394,6 @@
     <t>/nc:CourtCase/nc:CaseAugmentationPoint/j:CaseAugmentation/j:CaseDefendantParty/nc:EntityPerson/nc:PersonName/nc:PersonSurName</t>
   </si>
   <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim/RoleOfPerson/PersonName/PersonSurName
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "MiddleInitial",	"field": "IDMINI"},
 {"db": "AS400_JMS",	"table": "IMMSTR",	"fieldDesc": "MiddleInitial",	"field": "IMMINI"},
 {"db": "AS400_JMS",	"table": "IMFLDR",	"fieldDesc": "MiddleInitial",	"field": "IFMINI"},
@@ -2629,10 +2416,6 @@
 /Person/PersonName/PersonMiddleName</t>
   </si>
   <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim/RoleOfPerson/PersonName/PersonMiddleName
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",		"table": "IMARRD",	"fieldDesc": "NameSuffix",	"field": "IDNAMS"},
 {"db": "AS400_JMS",		"table": "IMMSTR",	"fieldDesc": "NameSuffix",	"field": "IMNAMS"},
 {"db": "AS400_JMS",		"table": "IMFLDR",	"fieldDesc": "NameSuffix",	"field": "IFNAMS"},
@@ -2649,14 +2432,6 @@
   </si>
   <si>
     <t>/nc:CourtCase/nc:CaseAugmentationPoint/j:CaseAugmentation/j:CaseDefendantParty/nc:EntityPerson/nc:PersonName/PersonNameSuffixText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim/RoleOfPerson/PersonName/PersonNameSuffixText
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson
-</t>
   </si>
   <si>
     <t>/j:CourtOrderDesignatedSubject/</t>
@@ -2686,9 +2461,6 @@
 /j:CaseDefendantParty/EntityPerson/nola-ext:PersonAugmentation/nola-ext:CaseDefendantNumber</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/nola-ext:PersonAugmentation/nola-ext:CaseDefendantNumber</t>
-  </si>
-  <si>
     <t>[{"db": "EPR",	"table": "Offenders",	"fieldDesc": "AdditionalDescription",	"field": "AdditionalDescription"}]</t>
   </si>
   <si>
@@ -2696,9 +2468,6 @@
   </si>
   <si>
     <t>/j:CaseDefendantParty/EntityPerson/PersonDescriptionText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonDescriptionText</t>
   </si>
   <si>
     <t>j:ChargeType</t>
@@ -2722,9 +2491,6 @@
     <t>nola-ext:ChargeAffidavitNumber</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:ChargeAugmentation/nola-ext:ChargeAffidavitNumber</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMCHGD",	"fieldDesc": "ChargeActive",	"field": "charge sanction"},
 {"db": "AS400_JMS",	"table": "IMCHGT",	"fieldDesc": "ChargeActiveInactive",	"field": "CTACTV"},
 {"db": "AS400_JMS",	"table": "IMDSPL",	"fieldDesc": "ChargeActiveInactive",	"field": "DLCACT"},
@@ -2756,9 +2522,6 @@
   <si>
     <t>/j:CaseCharge/j:ChargeCountQuantity
 /j:ArrestCharge/j:ChargeCountQuantity</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeCountQuantity</t>
   </si>
   <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeDescription",	"field": "IDCHD1"},
@@ -2789,18 +2552,12 @@
 /j:Arrest/j:ArrestCharge/j:ChargeDescriptionText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeDescriptionText</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "CHRGLOG",	"fieldDesc": "EffectiveDate",	"field": "CXEDATE"}]</t>
   </si>
   <si>
     <t xml:space="preserve">/j:ArrestCharge[1]/j:ChargeFilingDate/DateTime
 /j:CaseCharge/j:ChargeFilingDate/DateTime
 </t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeFilingDate/DateTime</t>
   </si>
   <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeKey",	"field": "IDCHK1"},
@@ -2827,9 +2584,6 @@
 </t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:ChargeAugmentation/nola-ext:ChargeKey</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeLIBRSCode",	"field": "IDLBR1"},
 {"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeLIBRSCode",	"field": "IDLBR2"},
 {"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeLIBRSCode",	"field": "IDLBR3"},
@@ -2845,9 +2599,6 @@
   <si>
     <t>/j:ArrestCharge/nola-ext:ChargeLIBRSCode
 /j:CaseCharge/nola-ext:ChargeAugmentation/nola-ext:ChargeLIBRSCode</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:ChargeAugmentation/nola-ext:ChargeLIBRSCode</t>
   </si>
   <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "JMSChargeNumber",	"field": "IDCHN1"},
@@ -2869,9 +2620,6 @@
 /j:CaseCharge/nola-ext:ChargeAugmentation/nola-ext:JMSChargeNumber</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:ChargeAugmentation/nola-ext:JMSChargeNumber</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "SENTEN",	"fieldDesc": "ChargeSequenceNumber",	"field": "SECHG#"},
 {"db": "AS400_CDC_CMS",	"table": "BNDHST",	"fieldDesc": "ChargeSequenceNumber (DEFCHG) ",	"field": "BH_CHARGE_SEQ_NUMBER"},
 {"db": "AS400_CDC_CMS",	"table": "CHRGLOG",	"fieldDesc": "ChargeSequenceNumber (DEFCHG) ",	"field": "CXSEQ#"},
@@ -2889,10 +2637,6 @@
 /j:ArrestCharge/j:ChargeSequenceID</t>
   </si>
   <si>
-    <t xml:space="preserve">/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSequenceID
-</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMCHGT",	"fieldDesc": "ChargeType ",	"field": "CTFMFL"},
 {"db": "CASTNetDB",	"table": "Charge",	"fieldDesc": "TypeFSMTO",	"field": "TypeFSMTO"},
 {"db": "CASTNetDB",	"table": "Charge",	"fieldDesc": "ChargeTypeCode",	"field": "ChargeTypeCode"},
@@ -2910,18 +2654,12 @@
 /j:CaseCharge/j:ChargeCategoryDescriptionText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeCategoryDescriptionText</t>
-  </si>
-  <si>
     <t>j:ChargeSeverityText</t>
   </si>
   <si>
     <t>/j:CaseCharge/j:ChargeSeverityText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSeverityText</t>
-  </si>
-  <si>
     <t>[{"db": "CASTNetDB",	"table": "PersonChargeDisposition",	"fieldDesc": "ChargeSource",	"field": "ChargeSource"}]</t>
   </si>
   <si>
@@ -2929,9 +2667,6 @@
   </si>
   <si>
     <t>/j:CaseCharge/nola-ext:ChargeAugmentation/SourceText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:ChargeAugmentation/SourceText</t>
   </si>
   <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD_ChargesAll_w_Keys",	"fieldDesc": "FBICategory",	"field": "FBI_Category"}]</t>
@@ -2954,9 +2689,6 @@
   </si>
   <si>
     <t>/j:CaseCharge/j:ChargeApplicabilityText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeApplicabilityText</t>
   </si>
   <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD_ChargesAll_w_Keys",	"fieldDesc": "UCRCategory",	"field": "UCR_Category"},
@@ -2995,9 +2727,6 @@
   </si>
   <si>
     <t>j:ChargeSeverityDescriptionText</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSeverityDescriptionText</t>
   </si>
   <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "RaceCode",	"field": "IDRACE"},
@@ -3028,9 +2757,6 @@
 /EntityPerson/PersonRaceText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonRaceText</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "GenderCode",	"field": "IDSEXC"},
 {"db": "AS400_JMS",	"table": "IMMSTR",	"fieldDesc": "GenderCode",	"field": "IMSEXC"},
 {"db": "AS400_CDC_CMS",	"table": "DEFEND",	"fieldDesc": "GenderCode",	"field": "DESEX"},
@@ -3048,9 +2774,6 @@
 /EntityPerson/PersonSexText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonSexText</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMMSTR",	"fieldDesc": "USCitizenship",	"field": "IMUSAC"},
 {"db": "AS400_JMS",	"table": "IMFLDR",	"fieldDesc": "USCitizenship",	"field": "IFUSAC"}]</t>
   </si>
@@ -3060,9 +2783,6 @@
   <si>
     <t>/Person/PersonUSCitizenIndicator
 /EntityPerson/PersonUSCitizenIndicator</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonUSCitizenIndicator</t>
   </si>
   <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "DateofBirth",	"field": "IDDOBD"},
@@ -3083,9 +2803,6 @@
     <t>/nc:CourtCase/nc:CaseAugmentationPoint/j:CaseAugmentation/j:CaseDefendantParty/nc:EntityPerson/nc:PersonBirthDate/nc:DateRepresentation/nc:Date</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonBirthDate</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "SIDNumber",	"field": "IDSIDN"},
 {"db": "AS400_JMS",	"table": "IMMSTR",	"fieldDesc": "SIDNumber",	"field": "IMSIDN"},
 {"db": "AS400_JMS",	"table": "IMFLDR",	"fieldDesc": "SIDNumber",	"field": "IFSIDN"},
@@ -3095,9 +2812,6 @@
   <si>
     <t>/j:BookingSubject/RoleOfPerson/PersonStateIdentification/IdentificationID
 /EntityPerson/PersonStateIdentification/IdentificationID</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonStateIdentification/IdentificationID</t>
   </si>
   <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "SocialSecurityNumber",	"field": "IDSSNO"},
@@ -3117,9 +2831,6 @@
 /j:CaseDefendantParty/EntityPerson/PersonSSNIdentification/IdentificationID</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonSSNIdentification</t>
-  </si>
-  <si>
     <t>scr:InmateNumberID</t>
   </si>
   <si>
@@ -3127,9 +2838,6 @@
 </t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/nola-ext:PersonAugmentation/scr:InmateNumberID</t>
-  </si>
-  <si>
     <t>j:ArrestCharge</t>
   </si>
   <si>
@@ -3137,13 +2845,7 @@
 /CourtCase/j:CaseAugmentation/j:CaseCharge/</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/</t>
-  </si>
-  <si>
     <t>/RoleOfPerson/</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/</t>
   </si>
   <si>
     <t xml:space="preserve">nc:PersonType </t>
@@ -3153,9 +2855,6 @@
 j:CourtOrder/j:CourtOrderDesignatedSubject/nc:RoleOfPerson/nc:PersonName/</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonName/</t>
-  </si>
-  <si>
     <t>nola-ext:AFISChargeAugmentation</t>
   </si>
   <si>
@@ -3165,9 +2864,6 @@
     <t>/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:AFISChargeAugmentation/</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:AFISChargeAugmentation/</t>
-  </si>
-  <si>
     <t>[{"db": "AS400_CDC_CMS",	"table": "CHRGLOG",	"fieldDesc": "OriginalBond",	"field": "CXOBND"}]</t>
   </si>
   <si>
@@ -3180,16 +2876,10 @@
     <t>/j:BailBond/</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/</t>
-  </si>
-  <si>
     <t>nola-ext:CourtDocketAugmentation</t>
   </si>
   <si>
     <t>nola-ext:CourtDocketAugmentationType</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtDocketAugmentation/</t>
   </si>
   <si>
     <t>j:ChargeStatute</t>
@@ -3202,9 +2892,6 @@
 /CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/</t>
-  </si>
-  <si>
     <t xml:space="preserve">nc:ActivityComment </t>
   </si>
   <si>
@@ -3221,28 +2908,16 @@
 /j:OrganizationAugmentation/</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgency/j:OrganizationAugmentation/</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/</t>
-  </si>
-  <si>
     <t>nola-ext:EntityCourtCasePartyAugmentation</t>
   </si>
   <si>
     <t>nola-ext:EntityAugmentationType</t>
-  </si>
-  <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseOtherEntity/nola-ext:EntityCourtCasePartyAugmentation/</t>
   </si>
   <si>
     <t>/j:CourtOrder/j:CourtOrderIssuingCourt/
 /j:CaseAugmentation/j:CaseCourt/</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/</t>
-  </si>
-  <si>
     <t>j:ExhibitEvidence</t>
   </si>
   <si>
@@ -3252,15 +2927,9 @@
     <t>/j:CaseExhibit/j:ExhibitEvidence/</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseExhibit/j:ExhibitEvidence/</t>
-  </si>
-  <si>
     <t>j:CaseDefendantParty</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/</t>
-  </si>
-  <si>
     <t>Property Type</t>
   </si>
   <si>
@@ -3294,15 +2963,9 @@
     <t>/j:BailBond/j:BailBondConditionDescriptionText</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/j:BailBondConditionDescriptionText</t>
-  </si>
-  <si>
     <t>/j:BailBond/j:BailBondSuretyEntity</t>
   </si>
   <si>
-    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/j:BailBondSuretyEntity</t>
-  </si>
-  <si>
     <t>j:BailBondConditionDescriptionText</t>
   </si>
   <si>
@@ -3319,6 +2982,466 @@
   </si>
   <si>
     <t>nola-ext:UpdateCode</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>Arrest</t>
+  </si>
+  <si>
+    <t>ArrestTrackingNumber</t>
+  </si>
+  <si>
+    <t>The State's Police Automated Fingerprint Inforamtion System (AFIS) generates an ATN to uniquely identify each booking event, often referred to as an Arrest Cycle. The ATN must be communicated from the Sheriff to the Court at a minimum, in order to effectively update the State computerized criminal history (CCH) with dispositions of arrest charges. The ATN is a 12 digit identifier used to track an arrest. ATN is a person-arrest-charge tracking number (combines ATN + ATN Charge Seq #) The ATN is a 12 digit number with an additional 3 digit “charge sequence number”. (Therefore the “15 digit ATN” is unique to Folder#+charge, but the 12 digit ATN is unique only to Folder#.) The 15 digit ATN can be used to track the disposition of each charge associated with a given booking. The Louisiana State Police use a statewide ATN number, but it does not match the ATNs used in Orleans.</t>
+  </si>
+  <si>
+    <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ATN",	"field": "IDATN1"},
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ATN",	"field": "IDATN2"},
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeATN",	"field": "IDATN3"},
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ATN",	"field": "IDATN4"},
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeATN",	"field": "IDATN5"},
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ATN",	"field": "IDATN6"},
+{"db": "AS400_JMS",	"table": "IMARRD_ChargesAll_w_Keys",	"fieldDesc": "ATN",	"field": "ATN"},
+{"db": "AS400_JMS",	"table": "IMCHGD",	"fieldDesc": "ATN",	"field": "ICATNO"},
+{"db": "AS400_JMS",	"table": "IMDSPL",	"fieldDesc": "ATN",	"field": "DLATNO"}]</t>
+  </si>
+  <si>
+    <t>nola-ext:StatewideArrestTrackingNumber</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>ATNChargeSequenceID</t>
+  </si>
+  <si>
+    <t>A sequential identifier number assigned to the arrest of a subject i.e ATN. The State's Police Automated Fingerprint Inforamtion System (AFIS) generates an ATN to uniquely identify each booking event, often referred to as an Arrest Cycle. The ATN must be communicated from the Sheriff to the Court at a minimum, in order to effectively update the State computerized criminal history (CCH) with dispositions of arrest charges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "CHRGLOG",	"fieldDesc": "ATNChargeSequenceNumber",	"field": "CXCHRGSEQ"},	
+{"db": "AS400_JMS",	"table": "DEFCHG",	"fieldDesc": "ATNChargeSequenceNumber",	"field": "DCCHRGSEQ"},	
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ATNChargeSequenceNumber",	"field": "IDATS1"},
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ATNChargeSequenceNumber",	"field": "IDATS2"},
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeATNSequenceNumber",	"field": "IDATS3"},
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ATNChargeSequenceNumber",	"field": "IDATS4"},
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeATNSequenceNumber",	"field": "IDATS5"},
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ATNChargeSequenceNumber",	"field": "IDATS6"},	
+{"db": "AS400_JMS",	"table": "IMARRD_ChargesAll_w_Keys",	"fieldDesc": "ATNSequenceNumber",	"field": "ATN_Seq_No"},
+{"db": "AS400_JMS",	"table": "IMCHGD",	"fieldDesc": "ATNSequenceNumber",	"field": "ICATNS"},
+{"db": "AS400_JMS",	"table": "IMDSPL",	"fieldDesc": "ATNChargeSequenceNumber",	"field": "DLATNS"},
+{"db": "AS400_CDC_CMS",	"table": "CHRGLOG",	"fieldDesc": "ATNChargeSequenceNumber",	"field": "CXCHRGSEQ"},
+{"db": "AS400_CDC_CMS",	"table": "DEFCHG",	"fieldDesc": "ATNChargeSequenceNumber",	"field": "DCCHRGSEQ"},
+{"db": "CASTNetDB",	"table": "PersonProbation",	"fieldDesc": "SequenceNumber",	"field": "SequenceNumber"}]
+</t>
+  </si>
+  <si>
+    <t>nola-ext:StatewideATNChargeSequenceID</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>FolderNumber</t>
+  </si>
+  <si>
+    <t>A Person ID for single continuous term of incarceration. If the individual is released today and returns tomorrow, a new folder number will be issued.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "FolderNumber",	"field": "IDFLDR"},
+{"db": "As400_JMS",	"table": "IMEVND",	"fieldDesc": "FolderNumber",	"field": "EDACTV"},
+{"db": "As400_JMS",	"table": "IMFLDR",	"fieldDesc": "FolderNumber",	"field": "IFFLDR"},
+{"db": "As400_JMS",	"table": "IMBPYD",	"fieldDesc": "FolderNumber",	"field": "BDFLDR"},
+{"db": "As400_JMS",	"table": "IMCHGD",	"fieldDesc": "FolderNumber",	"field": "ICFLDR"},
+{"db": "As400_JMS",	"table": "IMDSPL",	"fieldDesc": "FolderNumber",	"field": "DLFLDR"},
+{"db": "As400_JMS",	"table": "IMLOCH",	"fieldDesc": "FolderNumber",	"field": "LHFLDR"},
+{"db": "As400_JMS",	"table": "IMMISC",	"fieldDesc": "FolderNumber",	"field": "MSFLDR"},
+{"db": "As400_JMS",	"table": "IMSMTF",	"fieldDesc": "FolderNumber",	"field": "ISFLDR"},
+{"db": "As400_JMS",	"table": "IMTYPH",	"fieldDesc": "FolderNumber",	"field": "ITFLDR"},
+{"db": "AS400_CDC_CMS",	"table": "DEFCHG",	"fieldDesc": "FolderNumber",	"field": "DCFLDR"},
+{"db": "CASTNetDB",	"table": "ArrestLocation",	"fieldDesc": "FolderNumber",	"field": "FolderNumber"},
+{"db": "CASTNetDB",	"table": "ArrestOfficer",	"fieldDesc": "FolderNumber",	"field": "FolderNumber"},
+{"db": "CASTNetDB",	"table": "PersonArrest",	"fieldDesc": "FolderNumber",	"field": "FolderNumber"},
+{"db": "CASTNetDB",	"table": "ArrestLocation",	"fieldDesc": "FolderNumber",	"field": "FolderNumber"},
+{"db": "CASTNetDB",	"table": "ArrestOfficer",	"fieldDesc": "FolderNumber",	"field": "FolderNumber"},
+{"db": "CASTNetDB",	"table": "PersonArrest",	"fieldDesc": "FolderNumber",	"field": "FolderNumber"},
+{"db": "MC",		"table": "Digicourt_Orleans.dbview.vw_ArrestDetail",	"fieldDesc": "FolderNumber",	"field": "ARREST_FOLDER"}]
+</t>
+  </si>
+  <si>
+    <t>j:BookingDocumentControlIdentification</t>
+  </si>
+  <si>
+    <t>nc:IdentificationType</t>
+  </si>
+  <si>
+    <t>MessageOperationCode</t>
+  </si>
+  <si>
+    <t>A type of message operation.</t>
+  </si>
+  <si>
+    <t>Charges, Party/Entity</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond
+</t>
+  </si>
+  <si>
+    <t>/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/ActivityStatus/StatusIssuerIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/j:BailBondAmount/Amount
+</t>
+  </si>
+  <si>
+    <t>/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/ActivityDate/Date</t>
+  </si>
+  <si>
+    <t>/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/ActivityIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondPaidAmount/Amount</t>
+  </si>
+  <si>
+    <t>/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondPaymentKey</t>
+  </si>
+  <si>
+    <t>/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondReceiptNumber</t>
+  </si>
+  <si>
+    <t>/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:BondType</t>
+  </si>
+  <si>
+    <t>/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/j:BailBondConditionDescriptionText</t>
+  </si>
+  <si>
+    <t>/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/j:BailBondSuretyEntity</t>
+  </si>
+  <si>
+    <t>/nola:BondUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/nola-ext:BailBondAugmentation/nola-ext:HoldWithoutBond</t>
+  </si>
+  <si>
+    <t>/nola:BookingExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/OrganizationName
+/nola:BookingExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgency/OrganizationName</t>
+  </si>
+  <si>
+    <t>/nola:BookingExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID
+/nola:BookingExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgency/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:BookingExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgency/j:OrganizationAugmentation/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:BookingExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgencyRecordIdentification/nola-ext:IdentificationAugmentation/nola-ext:IdentificationSequenceNumber
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:BookingExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSubject/j:SubjectBooking/j:BookingAgencyRecordIdentification/IdentificationID
+</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/j:OrganizationAugmentation/</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtAugmentation/AddressCountyName</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/j:CourtDivisionText</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtDocketAugmentation/</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/OrganizationIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/j:CourtName</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/OrganizationLocation/LocationPart/LocationRoomText</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/j:CourtCategoryCode</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtCategoryAbstract/nola-ext:CourtCategoryText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:CaseActivityUpdateExchange/CourtCase/ActivityComment/CommentText
+</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/nola-ext:CaseAugmentation/nola-ext:CourtCaseCancelledFlag</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/CaseDocketID</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseExhibit/j:ExhibitEvidence/</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/j:CourtEventSequenceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:CaseActivityUpdateExchange/CourtCase/ActivityStatus/StatusText
+</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/CaseTitleText</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/CaseGeneralCategoryText</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseExhibit/j:ExhibitEvidence/j:EvidenceQuantityText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/j:CourtEventAction/j:CourtCaseStatusText
+</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtDocketAugmentation/ActivityDate/DateTime</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtDocketAugmentation/ActivitySequenceNumeric/niem-xs:decimal</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourt/nola-ext:CourtDocketAugmentation/ActivityStatus/StatusText</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:AFISChargeAugmentation/j:ChargeDescriptionText</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:AFISChargeAugmentation/j:ChargeIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:AFISChargeAugmentation/j:ChargeQualifierText</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:ChargeAugmentation/nola-ext:ChargeAffidavitNumber</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:AFISChargeAugmentation/</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/hs:ChargeAugmentation/j:BailBond/</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeCategoryDescriptionText</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSeverityDescriptionText</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeCountQuantity</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeDescriptionText</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeFilingDate/DateTime</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeApplicabilityText</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:ChargeAugmentation/nola-ext:ChargeKey</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:ChargeAugmentation/nola-ext:ChargeLIBRSCode</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:ChargeAugmentation/nola-ext:JMSChargeNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSequenceID
+</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:ChargeAugmentation/SourceText</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeSeverityText</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/j:StatuteDescriptionText</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/j:StatuteCodeIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/nola-ext:ChargeStatuteAugmentation/nola-ext:StatuteCodeSectionSubparagraphIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/j:StatuteCodeSectionIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:ChargeUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeStatute/j:StatuteText</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/j:CourtEventAction/ActivityIdentification/IdentifcationID</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/ActivityDate/DateTime</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCourtEvent/j:CourtEventAction/ActivityReasonText</t>
+  </si>
+  <si>
+    <t>/nola:CaseActivityUpdateExchange/CourtCase/CaseResolutionText</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseProsecutionAttorney/j:JudicialOfficialBarMembership/j:JudicialOfficialBarIdentification/IdentificationID
+/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefenseAttorney/j:JudicialOfficialBarMembership/j:JudicialOfficialBarIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantQuantityText</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseOtherEntity/nola-ext:EntityCourtCasePartyAugmentation/</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefenseAttorney</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseJudge/</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseOfficial/nola-ext:CaseOfficialAugmentation/j:EnforcementOfficial</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseProsecutionAttorney</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseWitness/</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/nola-ext:PersonAugmentation/nola-ext:CaseDefendantNumber</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonDescriptionText</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson
+</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseJudge/j:JudicialOfficialRegistrationIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseJudge/j:JudicialOfficialCategoryText
+</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseOfficial/nola-ext:CaseOfficialAugmentation/j:EnforcementOfficial/j:EnforcementOfficialBadgeIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseOtherEntity/</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseOtherEntity/nola-ext:EntityAugmentation/nola-ext:CourtCasePartyRoleCode</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseOtherEntity/nola-ext:EntityAugmentation/nola-ext:CourtCasePartyRoleText</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonName/</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonSexText</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonRaceText</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonUSCitizenIndicator</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonBirthDate</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/nola-ext:PersonAugmentation/scr:InmateNumberID</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonStateIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonSSNIdentification</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseDefendantParty/EntityPerson/PersonName/PersonFullName</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim/RoleOfPerson/PersonName/PersonFullName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim/RoleOfPerson/PersonName/PersonSurName
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim/RoleOfPerson/PersonName/PersonMiddleName
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim/RoleOfPerson/PersonName/PersonNameSuffixText
+</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:VictimIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseWitness/j:WitnessIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseWitness/j:WitnessSequenceNumberText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:EntityUpdateExchange/j:Booking/j:Arrest/j:ArrestCharge[1]/nola-ext:ChargeAugmentation/nola-ext:StatewideArrestTrackingNumber
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[2]/nola-ext:ChargeAugmentation/nola-ext:StatewideArrestTrackingNumber
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[3]/nola-ext:ChargeAugmentation/nola-ext:StatewideArrestTrackingNumber
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[4]/nola-ext:ChargeAugmentation/nola-ext:StatewideArrestTrackingNumber
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[5]/nola-ext:ChargeAugmentation/nola-ext:StatewideArrestTrackingNumber
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[6]/nola-ext:ChargeAugmentation/nola-ext:StatewideArrestTrackingNumber
+</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/j:Booking/j:Arrest/j:ArrestCharge[1]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[2]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[3]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[4]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[5]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[6]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID</t>
+  </si>
+  <si>
+    <t>/nola:EntityUpdateExchange/j:Booking/j:BookingDocumentControlIdentification/IdentificationID</t>
   </si>
 </sst>
 </file>
@@ -3347,7 +3470,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3373,18 +3496,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3445,17 +3562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -3472,7 +3578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3507,30 +3613,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4400,13 +4495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O149"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N149" sqref="N149"/>
+      <selection pane="bottomRight" activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4427,13 +4522,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>900</v>
+        <v>795</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>902</v>
+        <v>797</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
@@ -4486,7 +4581,7 @@
         <v>226</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
@@ -4502,7 +4597,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>657</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4534,7 +4629,7 @@
         <v>229</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>658</v>
+        <v>613</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>455</v>
@@ -4544,10 +4639,10 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9" t="s">
-        <v>659</v>
+        <v>614</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>660</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4579,20 +4674,20 @@
         <v>232</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>661</v>
+        <v>615</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>662</v>
+        <v>616</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>663</v>
+        <v>617</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>664</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4624,20 +4719,20 @@
         <v>236</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>669</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4669,7 +4764,7 @@
         <v>240</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>670</v>
+        <v>622</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>455</v>
@@ -4679,10 +4774,10 @@
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9" t="s">
-        <v>671</v>
+        <v>623</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>672</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4714,20 +4809,20 @@
         <v>243</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>673</v>
+        <v>624</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>662</v>
+        <v>616</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
-        <v>674</v>
+        <v>625</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>675</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4759,20 +4854,20 @@
         <v>246</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>676</v>
+        <v>626</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>677</v>
+        <v>627</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9" t="s">
-        <v>678</v>
+        <v>628</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>679</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4804,20 +4899,20 @@
         <v>249</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>680</v>
+        <v>629</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>681</v>
+        <v>630</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9" t="s">
-        <v>682</v>
+        <v>631</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>683</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4849,20 +4944,20 @@
         <v>252</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>684</v>
+        <v>632</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>687</v>
+        <v>842</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4894,94 +4989,98 @@
         <v>255</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>688</v>
+        <v>635</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>689</v>
+        <v>636</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9" t="s">
-        <v>690</v>
+        <v>637</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>687</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>906</v>
+      <c r="E12" s="12" t="s">
+        <v>801</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>907</v>
+        <v>802</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="14" t="s">
-        <v>914</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14" t="s">
-        <v>910</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>911</v>
+      <c r="K12" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>908</v>
+      <c r="E13" s="12" t="s">
+        <v>803</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>909</v>
+        <v>804</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="14" t="s">
-        <v>915</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14" t="s">
-        <v>912</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>913</v>
+      <c r="K13" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5013,20 +5112,20 @@
         <v>258</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>691</v>
+        <v>638</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>692</v>
+        <v>639</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9" t="s">
-        <v>693</v>
+        <v>640</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>694</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5043,7 +5142,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
@@ -5091,20 +5190,20 @@
         <v>19</v>
       </c>
       <c r="J16" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>463</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5149,7 +5248,7 @@
         <v>457</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>458</v>
+        <v>847</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5166,7 +5265,7 @@
         <v>288</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="4" t="s">
@@ -5216,10 +5315,10 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
-        <v>886</v>
+        <v>787</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>887</v>
+        <v>848</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5251,20 +5350,20 @@
         <v>291</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>727</v>
+        <v>665</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>728</v>
+        <v>666</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9" t="s">
-        <v>729</v>
+        <v>667</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>730</v>
+        <v>849</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5296,7 +5395,7 @@
         <v>294</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>731</v>
+        <v>668</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>455</v>
@@ -5306,10 +5405,10 @@
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>732</v>
+        <v>669</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>733</v>
+        <v>850</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5320,13 +5419,13 @@
         <v>260</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>261</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="4" t="s">
@@ -5338,14 +5437,14 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>695</v>
+        <v>641</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>696</v>
+        <v>642</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>697</v>
+        <v>643</v>
       </c>
       <c r="O22" s="4"/>
     </row>
@@ -5357,7 +5456,7 @@
         <v>266</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>261</v>
@@ -5378,20 +5477,20 @@
         <v>267</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>701</v>
+        <v>646</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>702</v>
+        <v>647</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>703</v>
+        <v>648</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>704</v>
+        <v>851</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5402,7 +5501,7 @@
         <v>263</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>261</v>
@@ -5424,10 +5523,10 @@
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9" t="s">
-        <v>698</v>
+        <v>644</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>699</v>
+        <v>645</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>0</v>
@@ -5436,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>700</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5447,7 +5546,7 @@
         <v>269</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>261</v>
@@ -5468,20 +5567,20 @@
         <v>270</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>705</v>
+        <v>649</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>706</v>
+        <v>650</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9" t="s">
-        <v>707</v>
+        <v>651</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>708</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5492,7 +5591,7 @@
         <v>427</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>261</v>
@@ -5512,15 +5611,15 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
-        <v>875</v>
+        <v>778</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>876</v>
+        <v>779</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5531,7 +5630,7 @@
         <v>272</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>261</v>
@@ -5552,7 +5651,7 @@
         <v>273</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>709</v>
+        <v>652</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>455</v>
@@ -5564,10 +5663,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>710</v>
+        <v>653</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>711</v>
+        <v>855</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5578,7 +5677,7 @@
         <v>275</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>261</v>
@@ -5599,22 +5698,22 @@
         <v>276</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>701</v>
+        <v>646</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>712</v>
+        <v>654</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>713</v>
+        <v>655</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>714</v>
+        <v>856</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5625,7 +5724,7 @@
         <v>278</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>261</v>
@@ -5646,22 +5745,22 @@
         <v>279</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>715</v>
+        <v>656</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>716</v>
+        <v>657</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>717</v>
+        <v>658</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>718</v>
+        <v>857</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5672,7 +5771,7 @@
         <v>281</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>261</v>
@@ -5693,20 +5792,20 @@
         <v>282</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>719</v>
+        <v>659</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>720</v>
+        <v>660</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>721</v>
+        <v>661</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9" t="s">
-        <v>722</v>
+        <v>662</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>723</v>
+        <v>858</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5717,7 +5816,7 @@
         <v>284</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>261</v>
@@ -5738,20 +5837,20 @@
         <v>285</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>719</v>
+        <v>659</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>724</v>
+        <v>663</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9" t="s">
-        <v>725</v>
+        <v>664</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>726</v>
+        <v>859</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5762,13 +5861,13 @@
         <v>178</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="4" t="s">
@@ -5780,17 +5879,17 @@
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>614</v>
+        <v>860</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5801,7 +5900,7 @@
         <v>441</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>179</v>
@@ -5824,10 +5923,10 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9" t="s">
-        <v>892</v>
+        <v>790</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>893</v>
+        <v>861</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5838,7 +5937,7 @@
         <v>180</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>179</v>
@@ -5859,20 +5958,20 @@
         <v>181</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>618</v>
+        <v>862</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5883,7 +5982,7 @@
         <v>186</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>179</v>
@@ -5904,20 +6003,20 @@
         <v>187</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>626</v>
+        <v>863</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5928,7 +6027,7 @@
         <v>443</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>179</v>
@@ -5950,17 +6049,17 @@
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9" t="s">
-        <v>894</v>
+        <v>791</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>895</v>
+        <v>792</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>896</v>
+        <v>793</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>897</v>
+        <v>864</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5971,7 +6070,7 @@
         <v>189</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>179</v>
@@ -5992,10 +6091,10 @@
         <v>190</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>456</v>
@@ -6004,10 +6103,10 @@
         <v>0</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>630</v>
+        <v>865</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6018,7 +6117,7 @@
         <v>192</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>179</v>
@@ -6039,22 +6138,22 @@
         <v>193</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>633</v>
+        <v>866</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6065,7 +6164,7 @@
         <v>195</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>179</v>
@@ -6087,19 +6186,19 @@
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9" t="s">
-        <v>634</v>
+        <v>599</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>636</v>
+        <v>867</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6110,7 +6209,7 @@
         <v>198</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>179</v>
@@ -6131,22 +6230,22 @@
         <v>199</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>640</v>
+        <v>868</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6157,13 +6256,13 @@
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
@@ -6181,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6192,7 +6291,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>46</v>
@@ -6213,20 +6312,20 @@
         <v>49</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>482</v>
+        <v>869</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6237,13 +6336,13 @@
         <v>116</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="4" t="s">
@@ -6255,17 +6354,17 @@
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>543</v>
+        <v>870</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6276,7 +6375,7 @@
         <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>117</v>
@@ -6297,22 +6396,22 @@
         <v>120</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>548</v>
+        <v>871</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6323,7 +6422,7 @@
         <v>125</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>117</v>
@@ -6344,20 +6443,20 @@
         <v>126</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>557</v>
+        <v>872</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6368,7 +6467,7 @@
         <v>122</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>117</v>
@@ -6389,20 +6488,20 @@
         <v>123</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="9" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>548</v>
+        <v>871</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6413,7 +6512,7 @@
         <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>117</v>
@@ -6434,20 +6533,20 @@
         <v>129</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>561</v>
+        <v>873</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6458,13 +6557,13 @@
         <v>160</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="4" t="s">
@@ -6489,7 +6588,7 @@
         <v>163</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>161</v>
@@ -6510,20 +6609,20 @@
         <v>164</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>594</v>
+        <v>874</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6534,7 +6633,7 @@
         <v>166</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>161</v>
@@ -6555,7 +6654,7 @@
         <v>167</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>455</v>
@@ -6565,10 +6664,10 @@
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>597</v>
+        <v>875</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6579,7 +6678,7 @@
         <v>169</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>161</v>
@@ -6600,20 +6699,20 @@
         <v>170</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>601</v>
+        <v>876</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6624,13 +6723,13 @@
         <v>327</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>328</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="4" t="s">
@@ -6655,7 +6754,7 @@
         <v>330</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>328</v>
@@ -6676,20 +6775,20 @@
         <v>331</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9" t="s">
         <v>0</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>771</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6700,7 +6799,7 @@
         <v>421</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>328</v>
@@ -6720,17 +6819,17 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9" t="s">
-        <v>866</v>
+        <v>771</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>867</v>
+        <v>772</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9" t="s">
-        <v>868</v>
+        <v>773</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6741,7 +6840,7 @@
         <v>424</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>328</v>
@@ -6760,20 +6859,20 @@
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9" t="s">
-        <v>870</v>
+        <v>774</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>871</v>
+        <v>775</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>872</v>
+        <v>776</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="9" t="s">
-        <v>873</v>
+        <v>777</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6784,7 +6883,7 @@
         <v>357</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>328</v>
@@ -6805,20 +6904,20 @@
         <v>358</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>803</v>
+        <v>723</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>804</v>
+        <v>724</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="9" t="s">
-        <v>805</v>
+        <v>725</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>806</v>
+        <v>880</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6829,7 +6928,7 @@
         <v>378</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>328</v>
@@ -6850,18 +6949,18 @@
         <v>379</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>831</v>
+        <v>747</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>832</v>
+        <v>748</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9" t="s">
-        <v>833</v>
+        <v>881</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6872,7 +6971,7 @@
         <v>336</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>328</v>
@@ -6893,20 +6992,20 @@
         <v>337</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>776</v>
+        <v>703</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>777</v>
+        <v>704</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>778</v>
+        <v>705</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9" t="s">
-        <v>779</v>
+        <v>706</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>780</v>
+        <v>882</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6917,7 +7016,7 @@
         <v>339</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>328</v>
@@ -6938,22 +7037,22 @@
         <v>340</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>781</v>
+        <v>707</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>782</v>
+        <v>708</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6964,7 +7063,7 @@
         <v>342</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>328</v>
@@ -6985,22 +7084,22 @@
         <v>343</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>784</v>
+        <v>709</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>785</v>
+        <v>710</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>786</v>
+        <v>884</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7011,7 +7110,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>328</v>
@@ -7032,20 +7131,20 @@
         <v>370</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>818</v>
+        <v>735</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>819</v>
+        <v>736</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="9" t="s">
-        <v>820</v>
+        <v>737</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>821</v>
+        <v>885</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7056,7 +7155,7 @@
         <v>345</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>328</v>
@@ -7077,20 +7176,20 @@
         <v>346</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>787</v>
+        <v>711</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>788</v>
+        <v>712</v>
       </c>
       <c r="L62" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9" t="s">
-        <v>789</v>
+        <v>713</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>790</v>
+        <v>886</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7101,7 +7200,7 @@
         <v>348</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>328</v>
@@ -7122,20 +7221,20 @@
         <v>349</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>791</v>
+        <v>714</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>792</v>
+        <v>715</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9" t="s">
-        <v>793</v>
+        <v>716</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>794</v>
+        <v>887</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7146,7 +7245,7 @@
         <v>351</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>328</v>
@@ -7167,20 +7266,20 @@
         <v>352</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>795</v>
+        <v>717</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>455</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>796</v>
+        <v>718</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9" t="s">
-        <v>797</v>
+        <v>719</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>798</v>
+        <v>888</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7191,7 +7290,7 @@
         <v>354</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>328</v>
@@ -7212,20 +7311,20 @@
         <v>355</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>799</v>
+        <v>720</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9" t="s">
-        <v>801</v>
+        <v>722</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>802</v>
+        <v>889</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7236,7 +7335,7 @@
         <v>363</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>328</v>
@@ -7257,22 +7356,22 @@
         <v>364</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>810</v>
+        <v>728</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>811</v>
+        <v>729</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>812</v>
+        <v>730</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>813</v>
+        <v>890</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7283,7 +7382,7 @@
         <v>429</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>328</v>
@@ -7305,17 +7404,17 @@
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9" t="s">
-        <v>878</v>
+        <v>780</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>879</v>
+        <v>781</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9" t="s">
-        <v>880</v>
+        <v>782</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7326,7 +7425,7 @@
         <v>360</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>328</v>
@@ -7347,20 +7446,20 @@
         <v>361</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>803</v>
+        <v>723</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>807</v>
+        <v>726</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="9" t="s">
-        <v>808</v>
+        <v>727</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>809</v>
+        <v>892</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7371,13 +7470,13 @@
         <v>72</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="4" t="s">
@@ -7402,7 +7501,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>73</v>
@@ -7423,20 +7522,20 @@
         <v>76</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="9" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>503</v>
+        <v>893</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7447,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>73</v>
@@ -7468,7 +7567,7 @@
         <v>79</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="K71" s="9" t="s">
         <v>455</v>
@@ -7478,10 +7577,10 @@
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="9" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>506</v>
+        <v>894</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7492,7 +7591,7 @@
         <v>83</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>73</v>
@@ -7513,7 +7612,7 @@
         <v>84</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>455</v>
@@ -7523,10 +7622,10 @@
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="9" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>512</v>
+        <v>895</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7537,7 +7636,7 @@
         <v>80</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>73</v>
@@ -7558,7 +7657,7 @@
         <v>81</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>455</v>
@@ -7568,10 +7667,10 @@
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="9" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>509</v>
+        <v>896</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7582,7 +7681,7 @@
         <v>86</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>73</v>
@@ -7603,20 +7702,20 @@
         <v>87</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="9" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>516</v>
+        <v>897</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7647,17 +7746,17 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="9" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7674,7 +7773,7 @@
         <v>135</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="4" t="s">
@@ -7686,14 +7785,14 @@
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="O76" s="4"/>
     </row>
@@ -7726,20 +7825,20 @@
         <v>148</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="L77" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="9" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>581</v>
+        <v>899</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7771,20 +7870,20 @@
         <v>145</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="9" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>577</v>
+        <v>900</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7816,22 +7915,22 @@
         <v>138</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M79" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>570</v>
+        <v>901</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7863,22 +7962,22 @@
         <v>142</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>574</v>
+        <v>902</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7895,7 +7994,7 @@
         <v>52</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="4" t="s">
@@ -7910,7 +8009,7 @@
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="O81" s="4"/>
     </row>
@@ -7922,13 +8021,13 @@
         <v>89</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="4" t="s">
@@ -7955,7 +8054,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>90</v>
@@ -7976,20 +8075,20 @@
         <v>93</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="K83" s="9" t="s">
         <v>455</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="9" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>521</v>
+        <v>903</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8000,7 +8099,7 @@
         <v>183</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>179</v>
@@ -8021,20 +8120,20 @@
         <v>184</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="9" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>622</v>
+        <v>904</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8045,7 +8144,7 @@
         <v>438</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>179</v>
@@ -8065,15 +8164,15 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9" t="s">
-        <v>889</v>
+        <v>788</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>890</v>
+        <v>789</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8084,7 +8183,7 @@
         <v>201</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>179</v>
@@ -8105,20 +8204,20 @@
         <v>202</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>642</v>
+        <v>605</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="9" t="s">
-        <v>643</v>
+        <v>606</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>644</v>
+        <v>906</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8129,7 +8228,7 @@
         <v>205</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>179</v>
@@ -8150,20 +8249,20 @@
         <v>206</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="9" t="s">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>647</v>
+        <v>907</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8174,7 +8273,7 @@
         <v>445</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>179</v>
@@ -8194,15 +8293,15 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="s">
-        <v>898</v>
+        <v>794</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8213,7 +8312,7 @@
         <v>212</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>179</v>
@@ -8234,14 +8333,14 @@
         <v>213</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
       <c r="O89" s="9" t="s">
-        <v>651</v>
+        <v>909</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8252,7 +8351,7 @@
         <v>215</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>179</v>
@@ -8273,14 +8372,14 @@
         <v>216</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9" t="s">
-        <v>652</v>
+        <v>910</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8291,7 +8390,7 @@
         <v>209</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>179</v>
@@ -8312,20 +8411,20 @@
         <v>210</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>648</v>
+        <v>609</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>642</v>
+        <v>605</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="9" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>650</v>
+        <v>911</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8336,7 +8435,7 @@
         <v>218</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>179</v>
@@ -8357,18 +8456,18 @@
         <v>219</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9" t="s">
-        <v>655</v>
+        <v>912</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8379,7 +8478,7 @@
         <v>222</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>179</v>
@@ -8400,14 +8499,14 @@
         <v>223</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9" t="s">
-        <v>656</v>
+        <v>913</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8418,13 +8517,13 @@
         <v>317</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>318</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="4" t="s">
@@ -8441,7 +8540,7 @@
         <v>315</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>759</v>
+        <v>689</v>
       </c>
       <c r="O94" s="4"/>
     </row>
@@ -8453,7 +8552,7 @@
         <v>320</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>318</v>
@@ -8474,20 +8573,20 @@
         <v>321</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>761</v>
+        <v>691</v>
       </c>
       <c r="L95" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="9" t="s">
-        <v>762</v>
+        <v>692</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>763</v>
+        <v>914</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8498,7 +8597,7 @@
         <v>324</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>318</v>
@@ -8519,20 +8618,20 @@
         <v>325</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>764</v>
+        <v>693</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>765</v>
+        <v>694</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="9" t="s">
-        <v>766</v>
+        <v>695</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>767</v>
+        <v>915</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8543,7 +8642,7 @@
         <v>411</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>318</v>
@@ -8565,17 +8664,17 @@
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="s">
-        <v>858</v>
+        <v>766</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>768</v>
+        <v>696</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="9" t="s">
-        <v>859</v>
+        <v>767</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8586,13 +8685,13 @@
         <v>150</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="4" t="s">
@@ -8617,13 +8716,13 @@
         <v>314</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>315</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="4" t="s">
@@ -8641,7 +8740,7 @@
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4" t="s">
-        <v>758</v>
+        <v>917</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8652,13 +8751,13 @@
         <v>95</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="4" t="s">
@@ -8685,7 +8784,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>96</v>
@@ -8706,20 +8805,20 @@
         <v>99</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="L101" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="9" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>525</v>
+        <v>918</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8730,7 +8829,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>96</v>
@@ -8754,17 +8853,17 @@
         <v>0</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="9" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>528</v>
+        <v>919</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8775,13 +8874,13 @@
         <v>131</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="4" t="s">
@@ -8794,13 +8893,13 @@
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="M103" s="4" t="s">
         <v>38</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="O103" s="4"/>
     </row>
@@ -8812,13 +8911,13 @@
         <v>37</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="4" t="s">
@@ -8845,7 +8944,7 @@
         <v>40</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>38</v>
@@ -8866,7 +8965,7 @@
         <v>41</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K105" s="9" t="s">
         <v>455</v>
@@ -8876,10 +8975,10 @@
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>476</v>
+        <v>920</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8890,13 +8989,13 @@
         <v>104</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -8919,7 +9018,7 @@
         <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>105</v>
@@ -8940,18 +9039,18 @@
         <v>113</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9" t="s">
-        <v>539</v>
+        <v>921</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8962,7 +9061,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>105</v>
@@ -8983,20 +9082,20 @@
         <v>107</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="9" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="O108" s="9" t="s">
-        <v>532</v>
+        <v>922</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9007,7 +9106,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>105</v>
@@ -9028,20 +9127,20 @@
         <v>110</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="9" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>536</v>
+        <v>923</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9052,13 +9151,13 @@
         <v>407</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>408</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="4" t="s">
@@ -9083,7 +9182,7 @@
         <v>417</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>408</v>
@@ -9105,17 +9204,17 @@
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="9" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>863</v>
+        <v>769</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="9" t="s">
-        <v>861</v>
+        <v>768</v>
       </c>
       <c r="O111" s="9" t="s">
-        <v>862</v>
+        <v>924</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9126,7 +9225,7 @@
         <v>415</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>408</v>
@@ -9148,17 +9247,17 @@
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="L112" s="9" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="9" t="s">
-        <v>861</v>
+        <v>768</v>
       </c>
       <c r="O112" s="9" t="s">
-        <v>862</v>
+        <v>924</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9169,7 +9268,7 @@
         <v>419</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>408</v>
@@ -9191,17 +9290,17 @@
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9" t="s">
-        <v>734</v>
+        <v>670</v>
       </c>
       <c r="L113" s="9" t="s">
-        <v>735</v>
+        <v>671</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="9" t="s">
-        <v>864</v>
+        <v>770</v>
       </c>
       <c r="O113" s="9" t="s">
-        <v>865</v>
+        <v>925</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9212,13 +9311,13 @@
         <v>381</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>382</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="4" t="s">
@@ -9243,7 +9342,7 @@
         <v>387</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>382</v>
@@ -9264,20 +9363,20 @@
         <v>388</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>838</v>
+        <v>752</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>839</v>
+        <v>753</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="9" t="s">
-        <v>840</v>
+        <v>754</v>
       </c>
       <c r="O115" s="9" t="s">
-        <v>841</v>
+        <v>926</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9288,7 +9387,7 @@
         <v>385</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>382</v>
@@ -9309,20 +9408,20 @@
         <v>386</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>834</v>
+        <v>749</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>835</v>
+        <v>750</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="9" t="s">
-        <v>836</v>
+        <v>751</v>
       </c>
       <c r="O116" s="9" t="s">
-        <v>837</v>
+        <v>927</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9333,7 +9432,7 @@
         <v>390</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>382</v>
@@ -9354,20 +9453,20 @@
         <v>391</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>842</v>
+        <v>755</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>843</v>
+        <v>756</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="9" t="s">
-        <v>844</v>
+        <v>757</v>
       </c>
       <c r="O117" s="9" t="s">
-        <v>845</v>
+        <v>928</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9378,13 +9477,13 @@
         <v>393</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>394</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="4" t="s">
@@ -9409,7 +9508,7 @@
         <v>396</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>394</v>
@@ -9430,20 +9529,20 @@
         <v>397</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>846</v>
+        <v>758</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="9" t="s">
-        <v>847</v>
+        <v>759</v>
       </c>
       <c r="O119" s="9" t="s">
-        <v>848</v>
+        <v>929</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9454,7 +9553,7 @@
         <v>405</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>394</v>
@@ -9476,17 +9575,17 @@
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>855</v>
+        <v>764</v>
       </c>
       <c r="L120" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="9" t="s">
-        <v>856</v>
+        <v>765</v>
       </c>
       <c r="O120" s="9" t="s">
-        <v>857</v>
+        <v>930</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9497,7 +9596,7 @@
         <v>399</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>394</v>
@@ -9518,7 +9617,7 @@
         <v>400</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>849</v>
+        <v>760</v>
       </c>
       <c r="K121" s="9" t="s">
         <v>455</v>
@@ -9528,10 +9627,10 @@
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="9" t="s">
-        <v>850</v>
+        <v>761</v>
       </c>
       <c r="O121" s="9" t="s">
-        <v>851</v>
+        <v>931</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9542,7 +9641,7 @@
         <v>402</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>394</v>
@@ -9563,7 +9662,7 @@
         <v>403</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>852</v>
+        <v>762</v>
       </c>
       <c r="K122" s="9" t="s">
         <v>455</v>
@@ -9573,10 +9672,10 @@
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="9" t="s">
-        <v>853</v>
+        <v>763</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>854</v>
+        <v>932</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9587,13 +9686,13 @@
         <v>296</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>297</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="4" t="s">
@@ -9605,14 +9704,14 @@
       </c>
       <c r="J123" s="4"/>
       <c r="K123" s="4" t="s">
-        <v>734</v>
+        <v>670</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>735</v>
+        <v>671</v>
       </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4" t="s">
-        <v>736</v>
+        <v>672</v>
       </c>
       <c r="O123" s="4"/>
     </row>
@@ -9624,7 +9723,7 @@
         <v>299</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>297</v>
@@ -9645,20 +9744,20 @@
         <v>300</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>737</v>
+        <v>673</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>738</v>
+        <v>674</v>
       </c>
       <c r="L124" s="9" t="s">
-        <v>739</v>
+        <v>675</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="9" t="s">
-        <v>740</v>
+        <v>676</v>
       </c>
       <c r="O124" s="9" t="s">
-        <v>741</v>
+        <v>933</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9669,7 +9768,7 @@
         <v>302</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>297</v>
@@ -9690,20 +9789,20 @@
         <v>303</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>742</v>
+        <v>677</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>743</v>
+        <v>678</v>
       </c>
       <c r="L125" s="9" t="s">
-        <v>739</v>
+        <v>675</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="9" t="s">
-        <v>744</v>
+        <v>679</v>
       </c>
       <c r="O125" s="9" t="s">
-        <v>745</v>
+        <v>934</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9714,7 +9813,7 @@
         <v>305</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>297</v>
@@ -9735,20 +9834,20 @@
         <v>306</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>746</v>
+        <v>680</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>747</v>
+        <v>681</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>739</v>
+        <v>675</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="9" t="s">
-        <v>748</v>
+        <v>682</v>
       </c>
       <c r="O126" s="9" t="s">
-        <v>749</v>
+        <v>935</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9759,7 +9858,7 @@
         <v>308</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>297</v>
@@ -9780,20 +9879,20 @@
         <v>309</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>750</v>
+        <v>683</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>751</v>
+        <v>684</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>739</v>
+        <v>675</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="9" t="s">
-        <v>752</v>
+        <v>685</v>
       </c>
       <c r="O127" s="9" t="s">
-        <v>753</v>
+        <v>936</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9804,7 +9903,7 @@
         <v>311</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>297</v>
@@ -9825,20 +9924,20 @@
         <v>312</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>754</v>
+        <v>686</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>755</v>
+        <v>687</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="9" t="s">
-        <v>756</v>
+        <v>688</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>757</v>
+        <v>937</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9849,13 +9948,13 @@
         <v>30</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="4" t="s">
@@ -9882,7 +9981,7 @@
         <v>33</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>31</v>
@@ -9903,20 +10002,20 @@
         <v>34</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K130" s="9" t="s">
         <v>455</v>
       </c>
       <c r="L130" s="9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O130" s="9" t="s">
-        <v>473</v>
+        <v>938</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9927,13 +10026,13 @@
         <v>21</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="4" t="s">
@@ -9960,7 +10059,7 @@
         <v>24</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>22</v>
@@ -9981,7 +10080,7 @@
         <v>25</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K132" s="9" t="s">
         <v>455</v>
@@ -9991,10 +10090,10 @@
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O132" s="9" t="s">
-        <v>466</v>
+        <v>939</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10005,7 +10104,7 @@
         <v>27</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>22</v>
@@ -10026,20 +10125,20 @@
         <v>28</v>
       </c>
       <c r="J133" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="K133" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="K133" s="9" t="s">
-        <v>467</v>
-      </c>
       <c r="L133" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O133" s="9" t="s">
-        <v>469</v>
+        <v>940</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10069,20 +10168,20 @@
         <v>173</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="L134" s="9" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="9" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="O134" s="9" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10112,20 +10211,20 @@
         <v>176</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="L135" s="9" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="9" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="O135" s="9" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10140,7 +10239,7 @@
         <v>68</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -10184,20 +10283,20 @@
         <v>334</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>772</v>
+        <v>699</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>773</v>
+        <v>700</v>
       </c>
       <c r="L137" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="9" t="s">
-        <v>774</v>
+        <v>701</v>
       </c>
       <c r="O137" s="9" t="s">
-        <v>775</v>
+        <v>702</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10227,20 +10326,20 @@
         <v>367</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>814</v>
+        <v>731</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>815</v>
+        <v>732</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="9" t="s">
-        <v>816</v>
+        <v>733</v>
       </c>
       <c r="O138" s="9" t="s">
-        <v>817</v>
+        <v>734</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10270,22 +10369,22 @@
         <v>373</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>822</v>
+        <v>738</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>823</v>
+        <v>739</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M139" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>824</v>
+        <v>740</v>
       </c>
       <c r="O139" s="9" t="s">
-        <v>825</v>
+        <v>741</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10315,22 +10414,22 @@
         <v>376</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>826</v>
+        <v>742</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>827</v>
+        <v>743</v>
       </c>
       <c r="L140" s="9" t="s">
-        <v>828</v>
+        <v>744</v>
       </c>
       <c r="M140" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>829</v>
+        <v>745</v>
       </c>
       <c r="O140" s="9" t="s">
-        <v>830</v>
+        <v>746</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10357,19 +10456,19 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>882</v>
+        <v>783</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>883</v>
+        <v>784</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>884</v>
+        <v>785</v>
       </c>
       <c r="N141" s="9" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="O141" s="9" t="s">
-        <v>885</v>
+        <v>786</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10399,20 +10498,20 @@
         <v>154</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="L142" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M142" s="9"/>
       <c r="N142" s="9" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="O142" s="9" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10442,20 +10541,20 @@
         <v>158</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="L143" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M143" s="9"/>
       <c r="N143" s="9" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="O143" s="9" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10485,20 +10584,20 @@
         <v>61</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L144" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="9" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="O144" s="9" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10528,20 +10627,20 @@
         <v>64</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="L145" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M145" s="9"/>
       <c r="N145" s="9" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="O145" s="9" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10571,20 +10670,20 @@
         <v>55</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="L146" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M146" s="9"/>
       <c r="N146" s="9" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="O146" s="9" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10614,20 +10713,20 @@
         <v>58</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L147" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M147" s="9"/>
       <c r="N147" s="9" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="O147" s="9" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10642,7 +10741,7 @@
         <v>70</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="4" t="s">
@@ -10662,28 +10761,175 @@
       <c r="O148" s="4"/>
     </row>
     <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A149" s="15"/>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
-      <c r="K149" s="19" t="s">
-        <v>919</v>
-      </c>
-      <c r="L149" s="19" t="s">
-        <v>916</v>
-      </c>
-      <c r="M149" s="19"/>
-      <c r="N149" s="19" t="s">
-        <v>918</v>
-      </c>
-      <c r="O149" s="19" t="s">
-        <v>917</v>
+      <c r="A149" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="D149" s="13"/>
+      <c r="E149" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="H149" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="L149" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="M149" s="13"/>
+      <c r="N149" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="O149" s="13" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="H150" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="J150" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="K150" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="L150" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="M150" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="N150" s="12"/>
+      <c r="O150" s="12" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="H151" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="J151" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="K151" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="L151" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="M151" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="J152" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="K152" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="L152" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="M152" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12" t="s">
+        <v>943</v>
       </c>
     </row>
   </sheetData>

--- a/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
+++ b/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesCabral\git\JTMP-Data-Exchange-Specs\schemas\CaseUpdates_iepd\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0389824B-13A5-4CF8-A8F9-25A0FC4D33F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E8E34E-E038-43F6-AF90-639729BEC335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="945">
   <si>
     <t/>
   </si>
@@ -3442,6 +3442,9 @@
   </si>
   <si>
     <t>/nola:EntityUpdateExchange/j:Booking/j:BookingDocumentControlIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>0..2</t>
   </si>
 </sst>
 </file>
@@ -4498,10 +4501,10 @@
   <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="H79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J144" sqref="J144"/>
+      <selection pane="bottomRight" activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8327,7 +8330,7 @@
         <v>111</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>14</v>
+        <v>944</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>213</v>
@@ -8405,7 +8408,7 @@
         <v>211</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>14</v>
+        <v>944</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>210</v>

--- a/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
+++ b/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesCabral\git\JTMP-Data-Exchange-Specs\schemas\CaseUpdates_iepd\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E8E34E-E038-43F6-AF90-639729BEC335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5893F1-E17F-4A86-8F2C-4CD347F432A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4065" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Initiation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="946">
   <si>
     <t/>
   </si>
@@ -3445,6 +3445,9 @@
   </si>
   <si>
     <t>0..2</t>
+  </si>
+  <si>
+    <t>Charges, Bond</t>
   </si>
 </sst>
 </file>
@@ -4501,10 +4504,10 @@
   <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H92" sqref="H92"/>
+      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7157,8 +7160,8 @@
       <c r="B62" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>798</v>
+      <c r="C62" s="12" t="s">
+        <v>945</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>328</v>

--- a/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
+++ b/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesCabral\git\JTMP-Data-Exchange-Specs\schemas\CaseUpdates_iepd\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5893F1-E17F-4A86-8F2C-4CD347F432A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B439AD0-EB71-4E7C-B1C0-835F0894C938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4065" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4080" yWindow="-21720" windowWidth="51840" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Initiation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="965">
   <si>
     <t/>
   </si>
@@ -2555,11 +2555,6 @@
     <t>[{"db": "AS400_CDC_CMS",	"table": "CHRGLOG",	"fieldDesc": "EffectiveDate",	"field": "CXEDATE"}]</t>
   </si>
   <si>
-    <t xml:space="preserve">/j:ArrestCharge[1]/j:ChargeFilingDate/DateTime
-/j:CaseCharge/j:ChargeFilingDate/DateTime
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeKey",	"field": "IDCHK1"},
 {"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeKey",	"field": "IDCHK2"},
 {"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "ChargeKey",	"field": "IDCHK3"},
@@ -3424,7 +3419,84 @@
     <t>/nola:EntityUpdateExchange/CourtCase/j:CaseAugmentation/j:CaseWitness/j:WitnessSequenceNumberText</t>
   </si>
   <si>
-    <t xml:space="preserve">/nola:EntityUpdateExchange/j:Booking/j:Arrest/j:ArrestCharge[1]/nola-ext:ChargeAugmentation/nola-ext:StatewideArrestTrackingNumber
+    <t>/nola:EntityUpdateExchange/j:Booking/j:BookingDocumentControlIdentification/IdentificationID</t>
+  </si>
+  <si>
+    <t>0..2</t>
+  </si>
+  <si>
+    <t>Charges, Bond</t>
+  </si>
+  <si>
+    <t>ContactAddress</t>
+  </si>
+  <si>
+    <t>A physical location at which a person may be contacted.</t>
+  </si>
+  <si>
+    <t>nc:ContactMailingAddress</t>
+  </si>
+  <si>
+    <t>nc:AddressType</t>
+  </si>
+  <si>
+    <t>nc:ContactInformationType</t>
+  </si>
+  <si>
+    <t>/nc:RoleOfPerson/nc:PersonContactInformation/nc:ContactMailingAddress/</t>
+  </si>
+  <si>
+    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim/RoleOfPerson/nc:PersonContactInformation/nc:ContactMailingAddress</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>An email address by which a case party will be notified electronically.</t>
+  </si>
+  <si>
+    <t>nc:ContactEmailID</t>
+  </si>
+  <si>
+    <t>/nc:RoleOfPerson/nc:PersonContactInformation/nc:ContactEmailID</t>
+  </si>
+  <si>
+    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim/RoleOfPerson/nc:PersonContactInformation/nc:ContactEmailID</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>A data concept for a telephone number.</t>
+  </si>
+  <si>
+    <t>[{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "Witness1PhoneNumber",	"field": "IDPHONW1"},
+{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "Witness2PhoneNumber",	"field": "IDPHONW2"},
+{"db": "AS400_JMS",	"table": "IMMSTR",	"fieldDesc": "PhoneNumber",	"field": "IMPHNO"},
+{"db": "AS400_JMS",	"table": "IMFLDR",	"fieldDesc": "PhoneNumber",	"field": "IFPHNO"},
+{"db": "AS400_CDC_CMS","table": "DEFEND",	"fieldDesc": "PhoneNumber",	"field": "DEFONE"},
+{"db": "EPR",		"table": "VictimPersons",	"fieldDesc": "PhoneNumber",	"field": "PhoneNumber"},
+{"db": "EPR",		"table": "VictimPersons",	"fieldDesc": "WorkPhoneNumber",	"field": "WorkPhoneNumber"}]</t>
+  </si>
+  <si>
+    <t>nc:ContactTelephoneNumber</t>
+  </si>
+  <si>
+    <t>nc:TelephoneNumberType</t>
+  </si>
+  <si>
+    <t>/nc:RoleOfPerson/nc:PersonContactInformation/nc:ContactTelephoneNumber</t>
+  </si>
+  <si>
+    <t>/nola:CaseInitiationExchange/CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeVictim/RoleOfPerson/nc:PersonContactInformation/nc:ContactTelephoneNumber/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/j:ArrestCharge/j:ChargeFilingDate/DateTime
+/j:CaseCharge/j:ChargeFilingDate/DateTime
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:EntityUpdateExchange/j:Booking/j:Arrest/j:ArrestCharge/nola-ext:ChargeAugmentation/nola-ext:StatewideArrestTrackingNumber
 /nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[2]/nola-ext:ChargeAugmentation/nola-ext:StatewideArrestTrackingNumber
 /nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[3]/nola-ext:ChargeAugmentation/nola-ext:StatewideArrestTrackingNumber
 /nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[4]/nola-ext:ChargeAugmentation/nola-ext:StatewideArrestTrackingNumber
@@ -3433,21 +3505,12 @@
 </t>
   </si>
   <si>
-    <t>/nola:EntityUpdateExchange/j:Booking/j:Arrest/j:ArrestCharge[1]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
+    <t>/nola:EntityUpdateExchange/j:Booking/j:Arrest/j:ArrestCharge/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
 /nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[2]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
 /nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[3]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
 /nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[4]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
 /nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[5]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
 /nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[6]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID</t>
-  </si>
-  <si>
-    <t>/nola:EntityUpdateExchange/j:Booking/j:BookingDocumentControlIdentification/IdentificationID</t>
-  </si>
-  <si>
-    <t>0..2</t>
-  </si>
-  <si>
-    <t>Charges, Bond</t>
   </si>
 </sst>
 </file>
@@ -3507,7 +3570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3580,11 +3643,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3632,6 +3715,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4501,13 +4593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O152"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomRight" activeCell="O155" sqref="O155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4523,18 +4615,18 @@
     <col min="10" max="10" width="126.33203125" customWidth="1"/>
     <col min="11" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="20.53125" customWidth="1"/>
-    <col min="15" max="15" width="12.796875" customWidth="1"/>
+    <col min="15" max="15" width="50.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
@@ -4587,7 +4679,7 @@
         <v>226</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
@@ -4603,7 +4695,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4648,7 +4740,7 @@
         <v>614</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4693,7 +4785,7 @@
         <v>617</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4738,7 +4830,7 @@
         <v>621</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4783,7 +4875,7 @@
         <v>623</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4828,7 +4920,7 @@
         <v>625</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4873,7 +4965,7 @@
         <v>628</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4918,7 +5010,7 @@
         <v>631</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4963,7 +5055,7 @@
         <v>634</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5008,7 +5100,7 @@
         <v>637</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5023,13 +5115,13 @@
         <v>226</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>14</v>
@@ -5037,17 +5129,17 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>460</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5062,13 +5154,13 @@
         <v>226</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>14</v>
@@ -5076,17 +5168,17 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>521</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5131,7 +5223,7 @@
         <v>640</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5148,7 +5240,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
@@ -5209,7 +5301,7 @@
         <v>461</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5254,7 +5346,7 @@
         <v>457</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5271,7 +5363,7 @@
         <v>288</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="4" t="s">
@@ -5321,10 +5413,10 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5369,7 +5461,7 @@
         <v>667</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5414,7 +5506,7 @@
         <v>669</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5425,13 +5517,13 @@
         <v>260</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>261</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="4" t="s">
@@ -5462,7 +5554,7 @@
         <v>266</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>261</v>
@@ -5496,7 +5588,7 @@
         <v>648</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5507,7 +5599,7 @@
         <v>263</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>261</v>
@@ -5541,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5552,7 +5644,7 @@
         <v>269</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>261</v>
@@ -5586,7 +5678,7 @@
         <v>651</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5597,7 +5689,7 @@
         <v>427</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>261</v>
@@ -5617,15 +5709,15 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>778</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>779</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5636,7 +5728,7 @@
         <v>272</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>261</v>
@@ -5672,7 +5764,7 @@
         <v>653</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5683,7 +5775,7 @@
         <v>275</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>261</v>
@@ -5719,7 +5811,7 @@
         <v>655</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5730,7 +5822,7 @@
         <v>278</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>261</v>
@@ -5766,7 +5858,7 @@
         <v>658</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5777,7 +5869,7 @@
         <v>281</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>261</v>
@@ -5811,7 +5903,7 @@
         <v>662</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5822,7 +5914,7 @@
         <v>284</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>261</v>
@@ -5856,7 +5948,7 @@
         <v>664</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5867,13 +5959,13 @@
         <v>178</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="4" t="s">
@@ -5895,7 +5987,7 @@
         <v>584</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5906,7 +5998,7 @@
         <v>441</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>179</v>
@@ -5929,10 +6021,10 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5943,7 +6035,7 @@
         <v>180</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>179</v>
@@ -5977,7 +6069,7 @@
         <v>587</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5988,7 +6080,7 @@
         <v>186</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>179</v>
@@ -6022,7 +6114,7 @@
         <v>593</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6033,7 +6125,7 @@
         <v>443</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>179</v>
@@ -6055,17 +6147,17 @@
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>791</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>792</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6076,7 +6168,7 @@
         <v>189</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>179</v>
@@ -6112,7 +6204,7 @@
         <v>596</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6123,7 +6215,7 @@
         <v>192</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>179</v>
@@ -6159,7 +6251,7 @@
         <v>598</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6170,7 +6262,7 @@
         <v>195</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>179</v>
@@ -6204,7 +6296,7 @@
         <v>600</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6215,7 +6307,7 @@
         <v>198</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>179</v>
@@ -6251,7 +6343,7 @@
         <v>603</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6262,13 +6354,13 @@
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
@@ -6297,7 +6389,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>46</v>
@@ -6331,7 +6423,7 @@
         <v>475</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6342,13 +6434,13 @@
         <v>116</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="4" t="s">
@@ -6370,7 +6462,7 @@
         <v>524</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6381,7 +6473,7 @@
         <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>117</v>
@@ -6417,7 +6509,7 @@
         <v>528</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6428,7 +6520,7 @@
         <v>125</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>117</v>
@@ -6462,7 +6554,7 @@
         <v>536</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6473,7 +6565,7 @@
         <v>122</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>117</v>
@@ -6507,7 +6599,7 @@
         <v>532</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6518,7 +6610,7 @@
         <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>117</v>
@@ -6552,7 +6644,7 @@
         <v>539</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6563,13 +6655,13 @@
         <v>160</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="4" t="s">
@@ -6594,7 +6686,7 @@
         <v>163</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>161</v>
@@ -6628,7 +6720,7 @@
         <v>567</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6639,7 +6731,7 @@
         <v>166</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>161</v>
@@ -6673,7 +6765,7 @@
         <v>569</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6684,7 +6776,7 @@
         <v>169</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>161</v>
@@ -6718,7 +6810,7 @@
         <v>572</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6729,13 +6821,13 @@
         <v>327</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>328</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="4" t="s">
@@ -6760,7 +6852,7 @@
         <v>330</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>328</v>
@@ -6794,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6805,7 +6897,7 @@
         <v>421</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>328</v>
@@ -6825,17 +6917,17 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="L54" s="9" t="s">
         <v>771</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>772</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6846,7 +6938,7 @@
         <v>424</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>328</v>
@@ -6865,20 +6957,20 @@
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="K55" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="L55" s="9" t="s">
         <v>775</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>776</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6889,7 +6981,7 @@
         <v>357</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>328</v>
@@ -6910,20 +7002,20 @@
         <v>358</v>
       </c>
       <c r="J56" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="K56" s="9" t="s">
         <v>723</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>724</v>
       </c>
       <c r="L56" s="9" t="s">
         <v>460</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6934,7 +7026,7 @@
         <v>378</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>328</v>
@@ -6955,10 +7047,10 @@
         <v>379</v>
       </c>
       <c r="J57" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="K57" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>748</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>460</v>
@@ -6966,7 +7058,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6977,7 +7069,7 @@
         <v>336</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>328</v>
@@ -7011,7 +7103,7 @@
         <v>706</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7022,7 +7114,7 @@
         <v>339</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>328</v>
@@ -7058,7 +7150,7 @@
         <v>708</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7069,7 +7161,7 @@
         <v>342</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>328</v>
@@ -7102,10 +7194,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>710</v>
+        <v>962</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7116,7 +7208,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>328</v>
@@ -7137,20 +7229,20 @@
         <v>370</v>
       </c>
       <c r="J61" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="K61" s="9" t="s">
         <v>735</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>736</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>460</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7161,7 +7253,7 @@
         <v>345</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>328</v>
@@ -7182,20 +7274,20 @@
         <v>346</v>
       </c>
       <c r="J62" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="K62" s="9" t="s">
         <v>711</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>712</v>
       </c>
       <c r="L62" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7206,7 +7298,7 @@
         <v>348</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>328</v>
@@ -7227,20 +7319,20 @@
         <v>349</v>
       </c>
       <c r="J63" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="K63" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7251,7 +7343,7 @@
         <v>351</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>328</v>
@@ -7272,20 +7364,20 @@
         <v>352</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>455</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7296,7 +7388,7 @@
         <v>354</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>328</v>
@@ -7317,20 +7409,20 @@
         <v>355</v>
       </c>
       <c r="J65" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="K65" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>721</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7341,7 +7433,7 @@
         <v>363</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>328</v>
@@ -7362,10 +7454,10 @@
         <v>364</v>
       </c>
       <c r="J66" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="K66" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>460</v>
@@ -7374,10 +7466,10 @@
         <v>0</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7388,7 +7480,7 @@
         <v>429</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>328</v>
@@ -7410,17 +7502,17 @@
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="L67" s="9" t="s">
         <v>780</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>781</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7431,7 +7523,7 @@
         <v>360</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>328</v>
@@ -7452,20 +7544,20 @@
         <v>361</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L68" s="9" t="s">
         <v>460</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7476,13 +7568,13 @@
         <v>72</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="4" t="s">
@@ -7507,7 +7599,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>73</v>
@@ -7541,7 +7633,7 @@
         <v>495</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7552,7 +7644,7 @@
         <v>78</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>73</v>
@@ -7586,7 +7678,7 @@
         <v>497</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7597,7 +7689,7 @@
         <v>83</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>73</v>
@@ -7631,7 +7723,7 @@
         <v>501</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7642,7 +7734,7 @@
         <v>80</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>73</v>
@@ -7676,7 +7768,7 @@
         <v>499</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7687,7 +7779,7 @@
         <v>86</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>73</v>
@@ -7721,7 +7813,7 @@
         <v>504</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7762,7 +7854,7 @@
         <v>544</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7779,7 +7871,7 @@
         <v>135</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="4" t="s">
@@ -7844,7 +7936,7 @@
         <v>555</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7889,7 +7981,7 @@
         <v>552</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7936,7 +8028,7 @@
         <v>547</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7983,7 +8075,7 @@
         <v>550</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8000,7 +8092,7 @@
         <v>52</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="4" t="s">
@@ -8027,13 +8119,13 @@
         <v>89</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="4" t="s">
@@ -8060,7 +8152,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>90</v>
@@ -8094,7 +8186,7 @@
         <v>508</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8105,7 +8197,7 @@
         <v>183</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>179</v>
@@ -8139,7 +8231,7 @@
         <v>590</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8150,7 +8242,7 @@
         <v>438</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>179</v>
@@ -8170,15 +8262,15 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="L85" s="9" t="s">
         <v>788</v>
-      </c>
-      <c r="L85" s="9" t="s">
-        <v>789</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8189,7 +8281,7 @@
         <v>201</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>179</v>
@@ -8223,7 +8315,7 @@
         <v>606</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8234,7 +8326,7 @@
         <v>205</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>179</v>
@@ -8268,7 +8360,7 @@
         <v>608</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8279,7 +8371,7 @@
         <v>445</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>179</v>
@@ -8299,7 +8391,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L88" s="9" t="s">
         <v>521</v>
@@ -8307,7 +8399,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8318,7 +8410,7 @@
         <v>212</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>179</v>
@@ -8333,7 +8425,7 @@
         <v>111</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>213</v>
@@ -8346,7 +8438,7 @@
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
       <c r="O89" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8357,7 +8449,7 @@
         <v>215</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>179</v>
@@ -8385,7 +8477,7 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8396,7 +8488,7 @@
         <v>209</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>179</v>
@@ -8411,7 +8503,7 @@
         <v>211</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>210</v>
@@ -8430,7 +8522,7 @@
         <v>610</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8441,7 +8533,7 @@
         <v>218</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>179</v>
@@ -8473,7 +8565,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8484,7 +8576,7 @@
         <v>222</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>179</v>
@@ -8512,7 +8604,7 @@
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8523,13 +8615,13 @@
         <v>317</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>318</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="4" t="s">
@@ -8558,7 +8650,7 @@
         <v>320</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>318</v>
@@ -8592,7 +8684,7 @@
         <v>692</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8603,7 +8695,7 @@
         <v>324</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>318</v>
@@ -8637,7 +8729,7 @@
         <v>695</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8648,7 +8740,7 @@
         <v>411</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>318</v>
@@ -8670,17 +8762,17 @@
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L97" s="9" t="s">
         <v>696</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8691,13 +8783,13 @@
         <v>150</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="4" t="s">
@@ -8722,13 +8814,13 @@
         <v>314</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>315</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="4" t="s">
@@ -8746,7 +8838,7 @@
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8757,13 +8849,13 @@
         <v>95</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="4" t="s">
@@ -8790,7 +8882,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>96</v>
@@ -8824,7 +8916,7 @@
         <v>511</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8835,7 +8927,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>96</v>
@@ -8869,7 +8961,7 @@
         <v>513</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8880,13 +8972,13 @@
         <v>131</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="4" t="s">
@@ -8917,13 +9009,13 @@
         <v>37</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="4" t="s">
@@ -8950,7 +9042,7 @@
         <v>40</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>38</v>
@@ -8984,7 +9076,7 @@
         <v>470</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8995,13 +9087,13 @@
         <v>104</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -9024,7 +9116,7 @@
         <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>105</v>
@@ -9056,7 +9148,7 @@
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9067,7 +9159,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>105</v>
@@ -9101,7 +9193,7 @@
         <v>516</v>
       </c>
       <c r="O108" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9112,7 +9204,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>105</v>
@@ -9146,7 +9238,7 @@
         <v>519</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9157,13 +9249,13 @@
         <v>407</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>408</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="4" t="s">
@@ -9188,7 +9280,7 @@
         <v>417</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>408</v>
@@ -9213,14 +9305,14 @@
         <v>607</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O111" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9231,7 +9323,7 @@
         <v>415</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>408</v>
@@ -9260,10 +9352,10 @@
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O112" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9274,7 +9366,7 @@
         <v>419</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>408</v>
@@ -9303,10 +9395,10 @@
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O113" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9317,13 +9409,13 @@
         <v>381</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>382</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="4" t="s">
@@ -9348,7 +9440,7 @@
         <v>387</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>382</v>
@@ -9369,20 +9461,20 @@
         <v>388</v>
       </c>
       <c r="J115" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="K115" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="K115" s="9" t="s">
-        <v>753</v>
       </c>
       <c r="L115" s="9" t="s">
         <v>460</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O115" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9393,7 +9485,7 @@
         <v>385</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>382</v>
@@ -9414,20 +9506,20 @@
         <v>386</v>
       </c>
       <c r="J116" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="K116" s="9" t="s">
         <v>749</v>
-      </c>
-      <c r="K116" s="9" t="s">
-        <v>750</v>
       </c>
       <c r="L116" s="9" t="s">
         <v>460</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O116" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9438,7 +9530,7 @@
         <v>390</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>382</v>
@@ -9459,20 +9551,20 @@
         <v>391</v>
       </c>
       <c r="J117" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="K117" s="9" t="s">
         <v>755</v>
-      </c>
-      <c r="K117" s="9" t="s">
-        <v>756</v>
       </c>
       <c r="L117" s="9" t="s">
         <v>575</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O117" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9483,13 +9575,13 @@
         <v>393</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>394</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="4" t="s">
@@ -9514,7 +9606,7 @@
         <v>396</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>394</v>
@@ -9535,7 +9627,7 @@
         <v>397</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K119" s="9" t="s">
         <v>619</v>
@@ -9545,10 +9637,10 @@
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O119" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9559,7 +9651,7 @@
         <v>405</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>394</v>
@@ -9581,17 +9673,17 @@
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L120" s="9" t="s">
         <v>456</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O120" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9602,7 +9694,7 @@
         <v>399</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>394</v>
@@ -9623,7 +9715,7 @@
         <v>400</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K121" s="9" t="s">
         <v>455</v>
@@ -9633,10 +9725,10 @@
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O121" s="9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9647,7 +9739,7 @@
         <v>402</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>394</v>
@@ -9668,7 +9760,7 @@
         <v>403</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K122" s="9" t="s">
         <v>455</v>
@@ -9678,10 +9770,10 @@
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9692,13 +9784,13 @@
         <v>296</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>297</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="4" t="s">
@@ -9729,7 +9821,7 @@
         <v>299</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>297</v>
@@ -9763,7 +9855,7 @@
         <v>676</v>
       </c>
       <c r="O124" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9774,7 +9866,7 @@
         <v>302</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>297</v>
@@ -9808,7 +9900,7 @@
         <v>679</v>
       </c>
       <c r="O125" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9819,7 +9911,7 @@
         <v>305</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>297</v>
@@ -9853,7 +9945,7 @@
         <v>682</v>
       </c>
       <c r="O126" s="9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9864,7 +9956,7 @@
         <v>308</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>297</v>
@@ -9898,7 +9990,7 @@
         <v>685</v>
       </c>
       <c r="O127" s="9" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9909,7 +10001,7 @@
         <v>311</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>297</v>
@@ -9943,7 +10035,7 @@
         <v>688</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9954,13 +10046,13 @@
         <v>30</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="4" t="s">
@@ -9987,7 +10079,7 @@
         <v>33</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>31</v>
@@ -10021,7 +10113,7 @@
         <v>468</v>
       </c>
       <c r="O130" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10032,13 +10124,13 @@
         <v>21</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="4" t="s">
@@ -10065,7 +10157,7 @@
         <v>24</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>22</v>
@@ -10099,7 +10191,7 @@
         <v>463</v>
       </c>
       <c r="O132" s="9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10110,7 +10202,7 @@
         <v>27</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>22</v>
@@ -10144,7 +10236,7 @@
         <v>465</v>
       </c>
       <c r="O133" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10245,7 +10337,7 @@
         <v>68</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -10332,20 +10424,20 @@
         <v>367</v>
       </c>
       <c r="J138" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="K138" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="K138" s="9" t="s">
-        <v>732</v>
       </c>
       <c r="L138" s="9" t="s">
         <v>460</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="O138" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="O138" s="9" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10375,10 +10467,10 @@
         <v>373</v>
       </c>
       <c r="J139" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="K139" s="9" t="s">
         <v>738</v>
-      </c>
-      <c r="K139" s="9" t="s">
-        <v>739</v>
       </c>
       <c r="L139" s="9" t="s">
         <v>460</v>
@@ -10387,10 +10479,10 @@
         <v>0</v>
       </c>
       <c r="N139" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="O139" s="9" t="s">
         <v>740</v>
-      </c>
-      <c r="O139" s="9" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10420,22 +10512,22 @@
         <v>376</v>
       </c>
       <c r="J140" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="K140" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="K140" s="9" t="s">
+      <c r="L140" s="9" t="s">
         <v>743</v>
-      </c>
-      <c r="L140" s="9" t="s">
-        <v>744</v>
       </c>
       <c r="M140" s="9" t="s">
         <v>0</v>
       </c>
       <c r="N140" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="O140" s="9" t="s">
         <v>745</v>
-      </c>
-      <c r="O140" s="9" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10462,19 +10554,19 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="L141" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="L141" s="9" t="s">
+      <c r="M141" s="9" t="s">
         <v>784</v>
-      </c>
-      <c r="M141" s="9" t="s">
-        <v>785</v>
       </c>
       <c r="N141" s="9" t="s">
         <v>476</v>
       </c>
       <c r="O141" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10747,7 +10839,7 @@
         <v>70</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="4" t="s">
@@ -10772,17 +10864,17 @@
       </c>
       <c r="B149" s="13"/>
       <c r="C149" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F149" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H149" s="14" t="s">
         <v>36</v>
@@ -10790,17 +10882,17 @@
       <c r="I149" s="13"/>
       <c r="J149" s="13"/>
       <c r="K149" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L149" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M149" s="13"/>
       <c r="N149" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O149" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10808,44 +10900,44 @@
         <v>12</v>
       </c>
       <c r="B150" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="D150" s="12" t="s">
         <v>813</v>
       </c>
-      <c r="C150" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="D150" s="12" t="s">
+      <c r="E150" s="12" t="s">
         <v>814</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>815</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H150" s="12" t="s">
         <v>36</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J150" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="K150" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="L150" s="12" t="s">
         <v>817</v>
-      </c>
-      <c r="K150" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="L150" s="12" t="s">
-        <v>818</v>
       </c>
       <c r="M150" s="12" t="s">
         <v>456</v>
       </c>
       <c r="N150" s="12"/>
       <c r="O150" s="12" t="s">
-        <v>941</v>
+        <v>963</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10853,44 +10945,44 @@
         <v>12</v>
       </c>
       <c r="B151" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="E151" s="12" t="s">
         <v>819</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>814</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>820</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>65</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H151" s="12" t="s">
         <v>36</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J151" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="K151" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="L151" s="12" t="s">
         <v>822</v>
-      </c>
-      <c r="K151" s="12" t="s">
-        <v>822</v>
-      </c>
-      <c r="L151" s="12" t="s">
-        <v>823</v>
       </c>
       <c r="M151" s="12" t="s">
         <v>456</v>
       </c>
       <c r="N151" s="12"/>
       <c r="O151" s="12" t="s">
-        <v>942</v>
+        <v>964</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10898,44 +10990,181 @@
         <v>12</v>
       </c>
       <c r="B152" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="E152" s="12" t="s">
         <v>824</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>814</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>825</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H152" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J152" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="K152" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="L152" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="K152" s="12" t="s">
-        <v>827</v>
-      </c>
-      <c r="L152" s="12" t="s">
+      <c r="M152" s="12" t="s">
         <v>828</v>
-      </c>
-      <c r="M152" s="12" t="s">
-        <v>829</v>
       </c>
       <c r="N152" s="12"/>
       <c r="O152" s="12" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="18">
+        <v>357</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="E153" s="19" t="s">
         <v>943</v>
+      </c>
+      <c r="F153" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="J153" s="16"/>
+      <c r="K153" s="19" t="s">
+        <v>945</v>
+      </c>
+      <c r="L153" s="19" t="s">
+        <v>946</v>
+      </c>
+      <c r="M153" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="N153" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="O153" s="19" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="18">
+        <v>358</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>950</v>
+      </c>
+      <c r="F154" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" s="19" t="s">
+        <v>950</v>
+      </c>
+      <c r="J154" s="16"/>
+      <c r="K154" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="L154" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="M154" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="N154" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="O154" s="19" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="18">
+        <v>359</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>955</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>956</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" s="19" t="s">
+        <v>955</v>
+      </c>
+      <c r="J155" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="K155" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="L155" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="M155" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="N155" s="16" t="s">
+        <v>960</v>
+      </c>
+      <c r="O155" s="19" t="s">
+        <v>961</v>
       </c>
     </row>
   </sheetData>

--- a/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
+++ b/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesCabral\git\JTMP-Data-Exchange-Specs\schemas\CaseUpdates_iepd\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B439AD0-EB71-4E7C-B1C0-835F0894C938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0602D-6189-40BD-99F5-1A01D8478FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4080" yWindow="-21720" windowWidth="51840" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4080" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Initiation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="978">
   <si>
     <t/>
   </si>
@@ -3512,12 +3512,57 @@
 /nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[5]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID
 /nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[6]/nola-ext:ChargeAugmentation/nola-ext:StatewideATNChargeSequenceID</t>
   </si>
+  <si>
+    <t>Charge Disposition Code</t>
+  </si>
+  <si>
+    <t>ChargeDisposiotion</t>
+  </si>
+  <si>
+    <t>ChargeDispositionCode</t>
+  </si>
+  <si>
+    <t>A value that describes the type of disposition.</t>
+  </si>
+  <si>
+    <t>[{"db": "AS400_JMS",	"table": "IMCHGD",	"fieldDesc": "DispositionCode",	"field": "ICDSPC"},
+{"db": "AS400_CDC_CMS",	"table": "CHRGLOG",	"fieldDesc": "DispositionCode",	"field": "CXDISP"},
+{"db": "AS400_CDC_CMS",	"table": "DISP",	"fieldDesc": "DispositionCode",	"field": "DP_DISPOSITION_CODE"},
+{"db": "AS400_CDC_CMS",	"table": "LookUp_IMCHGD_Dispositions",	"fieldDesc": "DispositionCode",	"field": "CODE"}]</t>
+  </si>
+  <si>
+    <t>nola-ext:ChargeDispositionCode</t>
+  </si>
+  <si>
+    <t>nola-ext:ChargeAugmentationType</t>
+  </si>
+  <si>
+    <t>j:CaseCharge/nola-ext:ChargeAugmentation/nola-ext:ChargeDispositionCode</t>
+  </si>
+  <si>
+    <t>/nola:CaseInitiationExchange/nc:CourtCase/j:CaseAugmentation/j:CaseCharge/nola-ext:ChargeAugmentation/ext:ChargeDispositionCode</t>
+  </si>
+  <si>
+    <t>ChargeDispositionDate</t>
+  </si>
+  <si>
+    <t>A date that a disposition was docketed in the court's system.</t>
+  </si>
+  <si>
+    <t>[{"db": "AS400_JMS",	"table": "IMCHGD",	"fieldDesc": "DispositionDate",	"field": "ICDSPD"},
+{"db": "AS400_CDC_CMS",	"table": "DISP",	"fieldDesc": "DispositionDate",	"field": "DPDATE"},
+{"db": "CASTNetDB",	"table": "PersonCharge",	"fieldDesc": "DispositionDate",	"field": "DispositionDate"},
+{"db": "MC",	"table": "Digicourt_Orleans.dbview.vw_CriminalCaseFileDetail", "fieldDesc": "DispositionDate", "field": "DISPOSITION_DATE"}]</t>
+  </si>
+  <si>
+    <t>/nola:CaseInitiationExchange/nc:CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeDisposition/nc:DispositionDate/nc:Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3535,6 +3580,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3570,7 +3621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3663,11 +3714,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3724,6 +3793,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4593,13 +4678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O155"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O155" sqref="O155"/>
+      <selection pane="bottomRight" activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -10698,7 +10783,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="7" t="s">
         <v>12</v>
       </c>
@@ -10741,7 +10826,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="7" t="s">
         <v>12</v>
       </c>
@@ -10784,7 +10869,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="7" t="s">
         <v>12</v>
       </c>
@@ -10827,7 +10912,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>8</v>
       </c>
@@ -10858,7 +10943,7 @@
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
     </row>
-    <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="15" t="s">
         <v>12</v>
       </c>
@@ -10895,7 +10980,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="15" t="s">
         <v>12</v>
       </c>
@@ -10940,7 +11025,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="15" t="s">
         <v>12</v>
       </c>
@@ -10985,7 +11070,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="15" t="s">
         <v>12</v>
       </c>
@@ -11030,7 +11115,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="17" t="s">
         <v>12</v>
       </c>
@@ -11075,7 +11160,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="17" t="s">
         <v>12</v>
       </c>
@@ -11120,7 +11205,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="17" t="s">
         <v>12</v>
       </c>
@@ -11165,6 +11250,103 @@
       </c>
       <c r="O155" s="19" t="s">
         <v>961</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="B156" s="20">
+        <v>151</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>967</v>
+      </c>
+      <c r="F156" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="19" t="s">
+        <v>968</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I156" s="21" t="s">
+        <v>967</v>
+      </c>
+      <c r="J156" s="21" t="s">
+        <v>969</v>
+      </c>
+      <c r="K156" s="21" t="s">
+        <v>970</v>
+      </c>
+      <c r="L156" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="M156" s="21" t="s">
+        <v>971</v>
+      </c>
+      <c r="N156" s="21" t="s">
+        <v>972</v>
+      </c>
+      <c r="O156" s="21" t="s">
+        <v>973</v>
+      </c>
+      <c r="T156" s="22"/>
+      <c r="U156" s="22"/>
+      <c r="V156" s="23"/>
+    </row>
+    <row r="157" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="B157" s="20">
+        <v>152</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>974</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G157" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I157" s="21" t="s">
+        <v>967</v>
+      </c>
+      <c r="J157" s="21" t="s">
+        <v>976</v>
+      </c>
+      <c r="K157" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="L157" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="M157" s="21" t="s">
+        <v>971</v>
+      </c>
+      <c r="N157" s="21" t="s">
+        <v>972</v>
+      </c>
+      <c r="O157" s="21" t="s">
+        <v>977</v>
       </c>
     </row>
   </sheetData>

--- a/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
+++ b/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesCabral\git\JTMP-Data-Exchange-Specs\schemas\CaseUpdates_iepd\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0602D-6189-40BD-99F5-1A01D8478FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F78A77-CC6E-47F6-8EA0-FD0639AD7931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4080" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Initiation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="985">
   <si>
     <t/>
   </si>
@@ -3516,9 +3516,6 @@
     <t>Charge Disposition Code</t>
   </si>
   <si>
-    <t>ChargeDisposiotion</t>
-  </si>
-  <si>
     <t>ChargeDispositionCode</t>
   </si>
   <si>
@@ -3556,6 +3553,32 @@
   </si>
   <si>
     <t>/nola:CaseInitiationExchange/nc:CourtCase/j:CaseAugmentation/j:CaseCharge/j:ChargeDisposition/nc:DispositionDate/nc:Date</t>
+  </si>
+  <si>
+    <t>ChargeDisposition</t>
+  </si>
+  <si>
+    <t>nc:DispositionType</t>
+  </si>
+  <si>
+    <t>j:CaseCharge/j:ChargeDisposition/nc:DispositionDate/nc:Date</t>
+  </si>
+  <si>
+    <t>DispositionDescription</t>
+  </si>
+  <si>
+    <t>A description of a disposition.</t>
+  </si>
+  <si>
+    <t>[{"db": "AS400_CDC_CMS",	"table": "TABDSP",	"fieldDesc": "DispositionDescription",	"field": "DT_DISPOSITION_DESCRIPTION"},
+{"db": "AS400_CDC_CMS",	"table": "TABDSPext",	"fieldDesc": "DispositionDescription",	"field": "DT_DISPOSITION_DESCRIPTION"},
+{"db": "MC",	"table": "Digicourt_Orleans.dbview.vw_CriminalCaseFileDetail",	"fieldDesc": "Disposition",	"field": "disposition"}]</t>
+  </si>
+  <si>
+    <t>nc:DispositionDescriptionText</t>
+  </si>
+  <si>
+    <t>j:CaseCharge/j:ChargeDisposition/nc:DispositionDescriptionText</t>
   </si>
 </sst>
 </file>
@@ -4678,13 +4701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V157"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C157" sqref="C157"/>
+      <selection pane="bottomRight" activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11263,40 +11286,40 @@
         <v>797</v>
       </c>
       <c r="D156" s="21" t="s">
+        <v>977</v>
+      </c>
+      <c r="E156" s="21" t="s">
         <v>966</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>967</v>
       </c>
       <c r="F156" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G156" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H156" s="14" t="s">
         <v>36</v>
       </c>
       <c r="I156" s="21" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J156" s="21" t="s">
+        <v>968</v>
+      </c>
+      <c r="K156" s="21" t="s">
         <v>969</v>
-      </c>
-      <c r="K156" s="21" t="s">
-        <v>970</v>
       </c>
       <c r="L156" s="21" t="s">
         <v>456</v>
       </c>
       <c r="M156" s="21" t="s">
+        <v>970</v>
+      </c>
+      <c r="N156" s="21" t="s">
         <v>971</v>
       </c>
-      <c r="N156" s="21" t="s">
+      <c r="O156" s="21" t="s">
         <v>972</v>
-      </c>
-      <c r="O156" s="21" t="s">
-        <v>973</v>
       </c>
       <c r="T156" s="22"/>
       <c r="U156" s="22"/>
@@ -11313,25 +11336,25 @@
         <v>797</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F157" s="24" t="s">
         <v>237</v>
       </c>
       <c r="G157" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H157" s="14" t="s">
         <v>36</v>
       </c>
       <c r="I157" s="21" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J157" s="21" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K157" s="21" t="s">
         <v>619</v>
@@ -11340,13 +11363,60 @@
         <v>620</v>
       </c>
       <c r="M157" s="21" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="N157" s="21" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="O157" s="21" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="B158" s="20">
+        <v>157</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="D158" s="21" t="s">
         <v>977</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>980</v>
+      </c>
+      <c r="F158" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="19" t="s">
+        <v>981</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I158" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="J158" s="21" t="s">
+        <v>982</v>
+      </c>
+      <c r="K158" s="21" t="s">
+        <v>983</v>
+      </c>
+      <c r="L158" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="M158" s="21" t="s">
+        <v>978</v>
+      </c>
+      <c r="N158" s="21" t="s">
+        <v>984</v>
+      </c>
+      <c r="O158" s="21" t="s">
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
+++ b/schemas/CaseUpdates_iepd/artifacts/CaseInitiation_MappingSpreasheet - Case Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesCabral\git\JTMP-Data-Exchange-Specs\schemas\CaseInitiation_iepd\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684349BB-4ECA-4761-915E-D5E8BF4EFAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AE029F-FA91-48C7-AA2C-CDC416D5909A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4080" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Initiation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="982">
   <si>
     <t/>
   </si>
@@ -3556,23 +3556,38 @@
     <t>Charge Item Number</t>
   </si>
   <si>
+    <t>nc:ActivityIdentification</t>
+  </si>
+  <si>
+    <t>nc:ActivityType</t>
+  </si>
+  <si>
+    <t>/j:Arrest/j:ArrestCharge/nola-ext:ChargeAugmentation/nola-ext:ArrestIncident/nc:ActivityIdentification/nc:IndentificationID</t>
+  </si>
+  <si>
+    <t>nola:CaseInitiationExchange/j:Arrest/j:ArrestCharge/nola-ext:ChargeAugmentation/nola-ext:ArrestIncident/nc:ActivityIdentification/nc:IndentificationID</t>
+  </si>
+  <si>
+    <t>ChargeItemNumber</t>
+  </si>
+  <si>
+    <t>CourtCaseFollowCaseID</t>
+  </si>
+  <si>
+    <t>Identifies an existing court case that this case should follow</t>
+  </si>
+  <si>
+    <t>/nc:CourtCase/nola-ext:CaseAugmentation/nola-ext:CourtCaseFollowCaseIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/nc:CaseInitiationExchange/nc:CourtCase/nola-ext:CaseAugmentation/nola-ext:CourtCaseFollowCaseIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>nola-ext:CourtCaseFollowCaseIdentification</t>
+  </si>
+  <si>
     <t>An identification that references an activity.
 The Item # is the incident number assigned by the Computer Aided Dispatching. It will be included on all arrest paperwork submitted by the arresting officer.</t>
-  </si>
-  <si>
-    <t>nc:ActivityIdentification</t>
-  </si>
-  <si>
-    <t>nc:ActivityType</t>
-  </si>
-  <si>
-    <t>/j:Arrest/j:ArrestCharge/nola-ext:ChargeAugmentation/nola-ext:ArrestIncident/nc:ActivityIdentification/nc:IndentificationID</t>
-  </si>
-  <si>
-    <t>nola:CaseInitiationExchange/j:Arrest/j:ArrestCharge/nola-ext:ChargeAugmentation/nola-ext:ArrestIncident/nc:ActivityIdentification/nc:IndentificationID</t>
-  </si>
-  <si>
-    <t>ChargeItemNumber</t>
   </si>
 </sst>
 </file>
@@ -3750,7 +3765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3819,11 +3834,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4742,10 +4754,10 @@
   <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F165" sqref="F165"/>
+      <selection pane="bottomRight" activeCell="N157" sqref="N157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -10950,40 +10962,76 @@
       <c r="D157" s="22" t="s">
         <v>970</v>
       </c>
-      <c r="E157" s="27" t="s">
+      <c r="E157" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F157" s="27" t="s">
+      <c r="F157" s="26" t="s">
+        <v>981</v>
+      </c>
+      <c r="G157" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H157" s="16" t="s">
+        <v>975</v>
+      </c>
+      <c r="I157" s="26"/>
+      <c r="J157" s="16" t="s">
         <v>971</v>
-      </c>
-      <c r="G157" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H157" s="16" t="s">
-        <v>976</v>
-      </c>
-      <c r="I157" s="27"/>
-      <c r="J157" s="16" t="s">
-        <v>972</v>
       </c>
       <c r="K157" s="16" t="s">
         <v>805</v>
       </c>
       <c r="L157" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="M157" s="27" t="s">
         <v>973</v>
       </c>
-      <c r="M157" s="28" t="s">
+      <c r="N157" s="27" t="s">
         <v>974</v>
       </c>
-      <c r="N157" s="28" t="s">
-        <v>975</v>
-      </c>
     </row>
     <row r="158" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A158" s="25"/>
-      <c r="B158" s="25"/>
-      <c r="O158" s="26"/>
-      <c r="P158" s="26"/>
+      <c r="A158" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="19"/>
+      <c r="C158" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>976</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>977</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" s="21" t="s">
+        <v>976</v>
+      </c>
+      <c r="I158" s="16"/>
+      <c r="J158" s="16" t="s">
+        <v>980</v>
+      </c>
+      <c r="K158" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="L158" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="M158" s="27" t="s">
+        <v>978</v>
+      </c>
+      <c r="N158" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O158" s="25"/>
+      <c r="P158" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O147">
